--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-marathon-top-by-races-count.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-marathon-top-by-races-count.xlsx
@@ -50,7 +50,7 @@
     <t>tyrpyr</t>
   </si>
   <si>
-    <t>1463 ч. 5 мин. 8 сек.</t>
+    <t>1463 ч. 05 мин. 08 сек.</t>
   </si>
   <si>
     <t>2</t>
@@ -104,7 +104,7 @@
     <t>natalishka</t>
   </si>
   <si>
-    <t>807 ч. 54 мин. 3 сек.</t>
+    <t>807 ч. 54 мин. 03 сек.</t>
   </si>
   <si>
     <t>8</t>
@@ -131,7 +131,7 @@
     <t>Lakira</t>
   </si>
   <si>
-    <t>544 ч. 58 мин. 8 сек.</t>
+    <t>544 ч. 58 мин. 08 сек.</t>
   </si>
   <si>
     <t>11</t>
@@ -194,7 +194,7 @@
     <t>Drumerspb</t>
   </si>
   <si>
-    <t>346 ч. 0 мин. 45 сек.</t>
+    <t>346 ч. 00 мин. 45 сек.</t>
   </si>
   <si>
     <t>18</t>
@@ -203,7 +203,7 @@
     <t>nezapivayu</t>
   </si>
   <si>
-    <t>340 ч. 6 мин. 56 сек.</t>
+    <t>340 ч. 06 мин. 56 сек.</t>
   </si>
   <si>
     <t>19</t>
@@ -212,7 +212,7 @@
     <t>KOSTYA410</t>
   </si>
   <si>
-    <t>338 ч. 6 мин. 35 сек.</t>
+    <t>338 ч. 06 мин. 35 сек.</t>
   </si>
   <si>
     <t>20</t>
@@ -230,7 +230,7 @@
     <t>qazwsxqwe2</t>
   </si>
   <si>
-    <t>328 ч. 55 мин. 0 сек.</t>
+    <t>328 ч. 55 мин. 00 сек.</t>
   </si>
   <si>
     <t>22</t>
@@ -302,7 +302,7 @@
     <t>Переборыч</t>
   </si>
   <si>
-    <t>292 ч. 6 мин. 54 сек.</t>
+    <t>292 ч. 06 мин. 54 сек.</t>
   </si>
   <si>
     <t>30</t>
@@ -311,7 +311,7 @@
     <t>Руфер</t>
   </si>
   <si>
-    <t>286 ч. 39 мин. 5 сек.</t>
+    <t>286 ч. 39 мин. 05 сек.</t>
   </si>
   <si>
     <t>31</t>
@@ -374,7 +374,7 @@
     <t>Speedyman</t>
   </si>
   <si>
-    <t>258 ч. 3 мин. 46 сек.</t>
+    <t>258 ч. 03 мин. 46 сек.</t>
   </si>
   <si>
     <t>38</t>
@@ -392,7 +392,7 @@
     <t>202</t>
   </si>
   <si>
-    <t>246 ч. 30 мин. 5 сек.</t>
+    <t>246 ч. 30 мин. 05 сек.</t>
   </si>
   <si>
     <t>40</t>
@@ -428,7 +428,7 @@
     <t>3Volta</t>
   </si>
   <si>
-    <t>237 ч. 2 мин. 53 сек.</t>
+    <t>237 ч. 02 мин. 53 сек.</t>
   </si>
   <si>
     <t>44</t>
@@ -455,7 +455,7 @@
     <t>Андруша</t>
   </si>
   <si>
-    <t>231 ч. 42 мин. 4 сек.</t>
+    <t>231 ч. 42 мин. 04 сек.</t>
   </si>
   <si>
     <t>47–48</t>
@@ -551,7 +551,7 @@
     <t>Shinobig</t>
   </si>
   <si>
-    <t>211 ч. 5 мин. 59 сек.</t>
+    <t>211 ч. 05 мин. 59 сек.</t>
   </si>
   <si>
     <t>58</t>
@@ -587,7 +587,7 @@
     <t>farochka</t>
   </si>
   <si>
-    <t>202 ч. 5 мин. 1 сек.</t>
+    <t>202 ч. 05 мин. 01 сек.</t>
   </si>
   <si>
     <t>62</t>
@@ -632,7 +632,7 @@
     <t>Leu</t>
   </si>
   <si>
-    <t>189 ч. 7 мин. 1 сек.</t>
+    <t>189 ч. 07 мин. 01 сек.</t>
   </si>
   <si>
     <t>67</t>
@@ -650,7 +650,7 @@
     <t>RODIS</t>
   </si>
   <si>
-    <t>184 ч. 19 мин. 7 сек.</t>
+    <t>184 ч. 19 мин. 07 сек.</t>
   </si>
   <si>
     <t>69</t>
@@ -695,7 +695,7 @@
     <t>Fermmer</t>
   </si>
   <si>
-    <t>178 ч. 41 мин. 2 сек.</t>
+    <t>178 ч. 41 мин. 02 сек.</t>
   </si>
   <si>
     <t>74</t>
@@ -704,7 +704,7 @@
     <t>Dobby_</t>
   </si>
   <si>
-    <t>177 ч. 48 мин. 4 сек.</t>
+    <t>177 ч. 48 мин. 04 сек.</t>
   </si>
   <si>
     <t>75</t>
@@ -713,7 +713,7 @@
     <t>carmero</t>
   </si>
   <si>
-    <t>174 ч. 4 мин. 24 сек.</t>
+    <t>174 ч. 04 мин. 24 сек.</t>
   </si>
   <si>
     <t>76</t>
@@ -785,7 +785,7 @@
     <t>Sergey0909</t>
   </si>
   <si>
-    <t>166 ч. 22 мин. 6 сек.</t>
+    <t>166 ч. 22 мин. 06 сек.</t>
   </si>
   <si>
     <t>84</t>
@@ -839,7 +839,7 @@
     <t>Анна_Банановна</t>
   </si>
   <si>
-    <t>159 ч. 6 мин. 17 сек.</t>
+    <t>159 ч. 06 мин. 17 сек.</t>
   </si>
   <si>
     <t>90</t>
@@ -893,7 +893,7 @@
     <t>HRUST</t>
   </si>
   <si>
-    <t>150 ч. 20 мин. 8 сек.</t>
+    <t>150 ч. 20 мин. 08 сек.</t>
   </si>
   <si>
     <t>96</t>
@@ -929,7 +929,7 @@
     <t>iOlga</t>
   </si>
   <si>
-    <t>142 ч. 38 мин. 3 сек.</t>
+    <t>142 ч. 38 мин. 03 сек.</t>
   </si>
   <si>
     <t>100</t>
@@ -1037,7 +1037,7 @@
     <t>CBETJIAHA</t>
   </si>
   <si>
-    <t>130 ч. 3 мин. 10 сек.</t>
+    <t>130 ч. 03 мин. 10 сек.</t>
   </si>
   <si>
     <t>112</t>
@@ -1088,7 +1088,7 @@
     <t>черепахаход</t>
   </si>
   <si>
-    <t>125 ч. 0 мин. 51 сек.</t>
+    <t>125 ч. 00 мин. 51 сек.</t>
   </si>
   <si>
     <t>118</t>
@@ -1133,7 +1133,7 @@
     <t>dosh</t>
   </si>
   <si>
-    <t>121 ч. 3 мин. 37 сек.</t>
+    <t>121 ч. 03 мин. 37 сек.</t>
   </si>
   <si>
     <t>123</t>
@@ -1142,7 +1142,7 @@
     <t>altavista_live</t>
   </si>
   <si>
-    <t>121 ч. 19 мин. 8 сек.</t>
+    <t>121 ч. 19 мин. 08 сек.</t>
   </si>
   <si>
     <t>124</t>
@@ -1205,7 +1205,7 @@
     <t>snov</t>
   </si>
   <si>
-    <t>116 ч. 7 мин. 21 сек.</t>
+    <t>116 ч. 07 мин. 21 сек.</t>
   </si>
   <si>
     <t>131</t>
@@ -1241,7 +1241,7 @@
     <t>Jon31</t>
   </si>
   <si>
-    <t>114 ч. 4 мин. 5 сек.</t>
+    <t>114 ч. 04 мин. 05 сек.</t>
   </si>
   <si>
     <t>135</t>
@@ -1259,7 +1259,7 @@
     <t>shibormot</t>
   </si>
   <si>
-    <t>112 ч. 35 мин. 9 сек.</t>
+    <t>112 ч. 35 мин. 09 сек.</t>
   </si>
   <si>
     <t>137</t>
@@ -1268,7 +1268,7 @@
     <t>evroman</t>
   </si>
   <si>
-    <t>112 ч. 5 мин. 0 сек.</t>
+    <t>112 ч. 05 мин. 00 сек.</t>
   </si>
   <si>
     <t>138</t>
@@ -1277,7 +1277,7 @@
     <t>MironART</t>
   </si>
   <si>
-    <t>111 ч. 45 мин. 4 сек.</t>
+    <t>111 ч. 45 мин. 04 сек.</t>
   </si>
   <si>
     <t>139</t>
@@ -1313,7 +1313,7 @@
     <t>coop</t>
   </si>
   <si>
-    <t>104 ч. 52 мин. 3 сек.</t>
+    <t>104 ч. 52 мин. 03 сек.</t>
   </si>
   <si>
     <t>143</t>
@@ -1322,7 +1322,7 @@
     <t>agor</t>
   </si>
   <si>
-    <t>103 ч. 2 мин. 4 сек.</t>
+    <t>103 ч. 02 мин. 04 сек.</t>
   </si>
   <si>
     <t>144</t>
@@ -1358,7 +1358,7 @@
     <t>lister32</t>
   </si>
   <si>
-    <t>101 ч. 39 мин. 0 сек.</t>
+    <t>101 ч. 39 мин. 00 сек.</t>
   </si>
   <si>
     <t>148</t>
@@ -1421,7 +1421,7 @@
     <t>hippo2047</t>
   </si>
   <si>
-    <t>99 ч. 32 мин. 5 сек.</t>
+    <t>99 ч. 32 мин. 05 сек.</t>
   </si>
   <si>
     <t>155</t>
@@ -1457,7 +1457,7 @@
     <t>Davydoff</t>
   </si>
   <si>
-    <t>98 ч. 33 мин. 5 сек.</t>
+    <t>98 ч. 33 мин. 05 сек.</t>
   </si>
   <si>
     <t>159</t>
@@ -1529,7 +1529,7 @@
     <t>artt</t>
   </si>
   <si>
-    <t>95 ч. 38 мин. 1 сек.</t>
+    <t>95 ч. 38 мин. 01 сек.</t>
   </si>
   <si>
     <t>167</t>
@@ -1538,7 +1538,7 @@
     <t>Clara_Oswald</t>
   </si>
   <si>
-    <t>95 ч. 22 мин. 5 сек.</t>
+    <t>95 ч. 22 мин. 05 сек.</t>
   </si>
   <si>
     <t>168</t>
@@ -1556,7 +1556,7 @@
     <t>RoRio</t>
   </si>
   <si>
-    <t>94 ч. 7 мин. 7 сек.</t>
+    <t>94 ч. 07 мин. 07 сек.</t>
   </si>
   <si>
     <t>170</t>
@@ -1583,7 +1583,7 @@
     <t>Wassja</t>
   </si>
   <si>
-    <t>93 ч. 8 мин. 19 сек.</t>
+    <t>93 ч. 08 мин. 19 сек.</t>
   </si>
   <si>
     <t>173</t>
@@ -1610,7 +1610,7 @@
     <t>dmitriy156</t>
   </si>
   <si>
-    <t>92 ч. 9 мин. 55 сек.</t>
+    <t>92 ч. 09 мин. 55 сек.</t>
   </si>
   <si>
     <t>176</t>
@@ -1706,7 +1706,7 @@
     <t>Марафонолюбец</t>
   </si>
   <si>
-    <t>88 ч. 53 мин. 3 сек.</t>
+    <t>88 ч. 53 мин. 03 сек.</t>
   </si>
   <si>
     <t>187</t>
@@ -1715,7 +1715,7 @@
     <t>ВАТ</t>
   </si>
   <si>
-    <t>88 ч. 4 мин. 54 сек.</t>
+    <t>88 ч. 04 мин. 54 сек.</t>
   </si>
   <si>
     <t>188–189</t>
@@ -1724,7 +1724,7 @@
     <t>akanat</t>
   </si>
   <si>
-    <t>86 ч. 51 мин. 9 сек.</t>
+    <t>86 ч. 51 мин. 09 сек.</t>
   </si>
   <si>
     <t>igormsu</t>
@@ -1748,7 +1748,7 @@
     <t>olimo</t>
   </si>
   <si>
-    <t>85 ч. 9 мин. 52 сек.</t>
+    <t>85 ч. 09 мин. 52 сек.</t>
   </si>
   <si>
     <t>192</t>
@@ -1757,7 +1757,7 @@
     <t>kult</t>
   </si>
   <si>
-    <t>85 ч. 9 мин. 7 сек.</t>
+    <t>85 ч. 09 мин. 07 сек.</t>
   </si>
   <si>
     <t>193</t>
@@ -1766,7 +1766,7 @@
     <t>Yura800</t>
   </si>
   <si>
-    <t>84 ч. 58 мин. 0 сек.</t>
+    <t>84 ч. 58 мин. 00 сек.</t>
   </si>
   <si>
     <t>194</t>
@@ -1826,7 +1826,7 @@
     <t>ikim_online</t>
   </si>
   <si>
-    <t>83 ч. 16 мин. 0 сек.</t>
+    <t>83 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>Evariste</t>
@@ -1841,7 +1841,7 @@
     <t>Oleg9534</t>
   </si>
   <si>
-    <t>82 ч. 31 мин. 9 сек.</t>
+    <t>82 ч. 31 мин. 09 сек.</t>
   </si>
   <si>
     <t>Чиндрик</t>
@@ -1919,7 +1919,7 @@
     <t>Виталька</t>
   </si>
   <si>
-    <t>79 ч. 11 мин. 9 сек.</t>
+    <t>79 ч. 11 мин. 09 сек.</t>
   </si>
   <si>
     <t>212</t>
@@ -1973,7 +1973,7 @@
     <t>омичка</t>
   </si>
   <si>
-    <t>77 ч. 0 мин. 17 сек.</t>
+    <t>77 ч. 00 мин. 17 сек.</t>
   </si>
   <si>
     <t>218–219</t>
@@ -2015,7 +2015,7 @@
     <t>gosha_bel</t>
   </si>
   <si>
-    <t>75 ч. 8 мин. 23 сек.</t>
+    <t>75 ч. 08 мин. 23 сек.</t>
   </si>
   <si>
     <t>223</t>
@@ -2024,7 +2024,7 @@
     <t>HUMAN</t>
   </si>
   <si>
-    <t>74 ч. 28 мин. 3 сек.</t>
+    <t>74 ч. 28 мин. 03 сек.</t>
   </si>
   <si>
     <t>224</t>
@@ -2033,7 +2033,7 @@
     <t>ps1501</t>
   </si>
   <si>
-    <t>74 ч. 4 мин. 58 сек.</t>
+    <t>74 ч. 04 мин. 58 сек.</t>
   </si>
   <si>
     <t>225</t>
@@ -2066,7 +2066,7 @@
     <t>zvv</t>
   </si>
   <si>
-    <t>73 ч. 2 мин. 21 сек.</t>
+    <t>73 ч. 02 мин. 21 сек.</t>
   </si>
   <si>
     <t>229</t>
@@ -2075,7 +2075,7 @@
     <t>Grumbler69</t>
   </si>
   <si>
-    <t>73 ч. 1 мин. 10 сек.</t>
+    <t>73 ч. 01 мин. 10 сек.</t>
   </si>
   <si>
     <t>230–231</t>
@@ -2108,7 +2108,7 @@
     <t>Велимира</t>
   </si>
   <si>
-    <t>72 ч. 16 мин. 7 сек.</t>
+    <t>72 ч. 16 мин. 07 сек.</t>
   </si>
   <si>
     <t>234</t>
@@ -2150,7 +2150,7 @@
     <t>vad375</t>
   </si>
   <si>
-    <t>71 ч. 13 мин. 8 сек.</t>
+    <t>71 ч. 13 мин. 08 сек.</t>
   </si>
   <si>
     <t>239</t>
@@ -2177,7 +2177,7 @@
     <t>Алина_</t>
   </si>
   <si>
-    <t>70 ч. 1 мин. 2 сек.</t>
+    <t>70 ч. 01 мин. 02 сек.</t>
   </si>
   <si>
     <t>242–243</t>
@@ -2192,7 +2192,7 @@
     <t>firelly</t>
   </si>
   <si>
-    <t>70 ч. 1 мин. 35 сек.</t>
+    <t>70 ч. 01 мин. 35 сек.</t>
   </si>
   <si>
     <t>244</t>
@@ -2228,7 +2228,7 @@
     <t>Salamandra555</t>
   </si>
   <si>
-    <t>69 ч. 1 мин. 45 сек.</t>
+    <t>69 ч. 01 мин. 45 сек.</t>
   </si>
   <si>
     <t>248</t>
@@ -2264,7 +2264,7 @@
     <t>Gridnout</t>
   </si>
   <si>
-    <t>67 ч. 53 мин. 0 сек.</t>
+    <t>67 ч. 53 мин. 00 сек.</t>
   </si>
   <si>
     <t>252</t>
@@ -2282,7 +2282,7 @@
     <t>Gardenstone</t>
   </si>
   <si>
-    <t>67 ч. 14 мин. 0 сек.</t>
+    <t>67 ч. 14 мин. 00 сек.</t>
   </si>
   <si>
     <t>254</t>
@@ -2291,7 +2291,7 @@
     <t>4681</t>
   </si>
   <si>
-    <t>67 ч. 9 мин. 6 сек.</t>
+    <t>67 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>255</t>
@@ -2360,7 +2360,7 @@
     <t>fedind</t>
   </si>
   <si>
-    <t>65 ч. 9 мин. 22 сек.</t>
+    <t>65 ч. 09 мин. 22 сек.</t>
   </si>
   <si>
     <t>263–264</t>
@@ -2384,7 +2384,7 @@
     <t>__Anastasia__</t>
   </si>
   <si>
-    <t>64 ч. 24 мин. 6 сек.</t>
+    <t>64 ч. 24 мин. 06 сек.</t>
   </si>
   <si>
     <t>266</t>
@@ -2438,7 +2438,7 @@
     <t>ivanova1789</t>
   </si>
   <si>
-    <t>62 ч. 25 мин. 7 сек.</t>
+    <t>62 ч. 25 мин. 07 сек.</t>
   </si>
   <si>
     <t>272</t>
@@ -2465,7 +2465,7 @@
     <t>123text_ru</t>
   </si>
   <si>
-    <t>61 ч. 37 мин. 3 сек.</t>
+    <t>61 ч. 37 мин. 03 сек.</t>
   </si>
   <si>
     <t>Athelas</t>
@@ -2480,7 +2480,7 @@
     <t>Диктатор</t>
   </si>
   <si>
-    <t>61 ч. 23 мин. 3 сек.</t>
+    <t>61 ч. 23 мин. 03 сек.</t>
   </si>
   <si>
     <t>277–278</t>
@@ -2489,13 +2489,13 @@
     <t>brlch</t>
   </si>
   <si>
-    <t>61 ч. 9 мин. 57 сек.</t>
+    <t>61 ч. 09 мин. 57 сек.</t>
   </si>
   <si>
     <t>anomura</t>
   </si>
   <si>
-    <t>61 ч. 3 мин. 52 сек.</t>
+    <t>61 ч. 03 мин. 52 сек.</t>
   </si>
   <si>
     <t>279–280</t>
@@ -2519,7 +2519,7 @@
     <t>Клевая_черепаха</t>
   </si>
   <si>
-    <t>60 ч. 8 мин. 28 сек.</t>
+    <t>60 ч. 08 мин. 28 сек.</t>
   </si>
   <si>
     <t>282–283</t>
@@ -2528,7 +2528,7 @@
     <t>Ethicon</t>
   </si>
   <si>
-    <t>60 ч. 4 мин. 17 сек.</t>
+    <t>60 ч. 04 мин. 17 сек.</t>
   </si>
   <si>
     <t>Amateur_</t>
@@ -2552,7 +2552,7 @@
     <t>Рыжая_</t>
   </si>
   <si>
-    <t>59 ч. 37 мин. 9 сек.</t>
+    <t>59 ч. 37 мин. 09 сек.</t>
   </si>
   <si>
     <t>Вассисуарий12</t>
@@ -2576,7 +2576,7 @@
     <t>Yflytuz</t>
   </si>
   <si>
-    <t>59 ч. 0 мин. 33 сек.</t>
+    <t>59 ч. 00 мин. 33 сек.</t>
   </si>
   <si>
     <t>289</t>
@@ -2594,7 +2594,7 @@
     <t>IOd</t>
   </si>
   <si>
-    <t>58 ч. 46 мин. 9 сек.</t>
+    <t>58 ч. 46 мин. 09 сек.</t>
   </si>
   <si>
     <t>Efremov</t>
@@ -2651,7 +2651,7 @@
     <t>daniyar5436</t>
   </si>
   <si>
-    <t>57 ч. 9 мин. 30 сек.</t>
+    <t>57 ч. 09 мин. 30 сек.</t>
   </si>
   <si>
     <t>298–300</t>
@@ -2666,7 +2666,7 @@
     <t>Тормоз_ручной</t>
   </si>
   <si>
-    <t>57 ч. 2 мин. 0 сек.</t>
+    <t>57 ч. 02 мин. 00 сек.</t>
   </si>
   <si>
     <t>vIRwO</t>
@@ -2690,7 +2690,7 @@
     <t>Русинов</t>
   </si>
   <si>
-    <t>56 ч. 6 мин. 2 сек.</t>
+    <t>56 ч. 06 мин. 02 сек.</t>
   </si>
   <si>
     <t>303–304</t>
@@ -2726,7 +2726,7 @@
     <t>совет-солдат</t>
   </si>
   <si>
-    <t>56 ч. 8 мин. 44 сек.</t>
+    <t>56 ч. 08 мин. 44 сек.</t>
   </si>
   <si>
     <t>308</t>
@@ -2735,7 +2735,7 @@
     <t>Gorynych</t>
   </si>
   <si>
-    <t>56 ч. 6 мин. 43 сек.</t>
+    <t>56 ч. 06 мин. 43 сек.</t>
   </si>
   <si>
     <t>309–310</t>
@@ -2744,13 +2744,13 @@
     <t>Thtas</t>
   </si>
   <si>
-    <t>56 ч. 0 мин. 38 сек.</t>
+    <t>56 ч. 00 мин. 38 сек.</t>
   </si>
   <si>
     <t>menoxe</t>
   </si>
   <si>
-    <t>56 ч. 0 мин. 59 сек.</t>
+    <t>56 ч. 00 мин. 59 сек.</t>
   </si>
   <si>
     <t>311</t>
@@ -2795,7 +2795,7 @@
     <t>ольгуша2010</t>
   </si>
   <si>
-    <t>55 ч. 3 мин. 56 сек.</t>
+    <t>55 ч. 03 мин. 56 сек.</t>
   </si>
   <si>
     <t>316–317</t>
@@ -2804,13 +2804,13 @@
     <t>TRIANON</t>
   </si>
   <si>
-    <t>55 ч. 4 мин. 4 сек.</t>
+    <t>55 ч. 04 мин. 04 сек.</t>
   </si>
   <si>
     <t>awefork</t>
   </si>
   <si>
-    <t>55 ч. 8 мин. 43 сек.</t>
+    <t>55 ч. 08 мин. 43 сек.</t>
   </si>
   <si>
     <t>318</t>
@@ -2876,7 +2876,7 @@
     <t>Alsim</t>
   </si>
   <si>
-    <t>54 ч. 2 мин. 52 сек.</t>
+    <t>54 ч. 02 мин. 52 сек.</t>
   </si>
   <si>
     <t>326–327</t>
@@ -2885,7 +2885,7 @@
     <t>Krivoy_Palec</t>
   </si>
   <si>
-    <t>54 ч. 0 мин. 8 сек.</t>
+    <t>54 ч. 00 мин. 08 сек.</t>
   </si>
   <si>
     <t>natasha-s</t>
@@ -2951,7 +2951,7 @@
     <t>Фиксик</t>
   </si>
   <si>
-    <t>52 ч. 29 мин. 7 сек.</t>
+    <t>52 ч. 29 мин. 07 сек.</t>
   </si>
   <si>
     <t>335</t>
@@ -2969,7 +2969,7 @@
     <t>uri11</t>
   </si>
   <si>
-    <t>52 ч. 1 мин. 51 сек.</t>
+    <t>52 ч. 01 мин. 51 сек.</t>
   </si>
   <si>
     <t>337–338</t>
@@ -3011,7 +3011,7 @@
     <t>SpiritCrusher</t>
   </si>
   <si>
-    <t>51 ч. 38 мин. 3 сек.</t>
+    <t>51 ч. 38 мин. 03 сек.</t>
   </si>
   <si>
     <t>Ларис</t>
@@ -3053,7 +3053,7 @@
     <t>ОлегК</t>
   </si>
   <si>
-    <t>51 ч. 7 мин. 9 сек.</t>
+    <t>51 ч. 07 мин. 09 сек.</t>
   </si>
   <si>
     <t>347</t>
@@ -3062,7 +3062,7 @@
     <t>SkriFo</t>
   </si>
   <si>
-    <t>51 ч. 2 мин. 39 сек.</t>
+    <t>51 ч. 02 мин. 39 сек.</t>
   </si>
   <si>
     <t>348</t>
@@ -3071,7 +3071,7 @@
     <t>uncleSharik</t>
   </si>
   <si>
-    <t>50 ч. 59 мин. 0 сек.</t>
+    <t>50 ч. 59 мин. 00 сек.</t>
   </si>
   <si>
     <t>349–350</t>
@@ -3080,13 +3080,13 @@
     <t>турандот</t>
   </si>
   <si>
-    <t>50 ч. 46 мин. 7 сек.</t>
+    <t>50 ч. 46 мин. 07 сек.</t>
   </si>
   <si>
     <t>LadyIrina</t>
   </si>
   <si>
-    <t>50 ч. 47 мин. 2 сек.</t>
+    <t>50 ч. 47 мин. 02 сек.</t>
   </si>
   <si>
     <t>351–353</t>
@@ -3149,7 +3149,7 @@
     <t>TuaDop</t>
   </si>
   <si>
-    <t>49 ч. 57 мин. 5 сек.</t>
+    <t>49 ч. 57 мин. 05 сек.</t>
   </si>
   <si>
     <t>359</t>
@@ -3200,7 +3200,7 @@
     <t>Lanamay</t>
   </si>
   <si>
-    <t>49 ч. 7 мин. 3 сек.</t>
+    <t>49 ч. 07 мин. 03 сек.</t>
   </si>
   <si>
     <t>365–366</t>
@@ -3209,13 +3209,13 @@
     <t>tarak</t>
   </si>
   <si>
-    <t>49 ч. 2 мин. 9 сек.</t>
+    <t>49 ч. 02 мин. 09 сек.</t>
   </si>
   <si>
     <t>Mary27</t>
   </si>
   <si>
-    <t>49 ч. 0 мин. 45 сек.</t>
+    <t>49 ч. 00 мин. 45 сек.</t>
   </si>
   <si>
     <t>367</t>
@@ -3242,7 +3242,7 @@
     <t>takobus</t>
   </si>
   <si>
-    <t>48 ч. 33 мин. 8 сек.</t>
+    <t>48 ч. 33 мин. 08 сек.</t>
   </si>
   <si>
     <t>olaolg</t>
@@ -3275,13 +3275,13 @@
     <t>харцызяка</t>
   </si>
   <si>
-    <t>48 ч. 7 мин. 32 сек.</t>
+    <t>48 ч. 07 мин. 32 сек.</t>
   </si>
   <si>
     <t>Wassjaja</t>
   </si>
   <si>
-    <t>48 ч. 5 мин. 9 сек.</t>
+    <t>48 ч. 05 мин. 09 сек.</t>
   </si>
   <si>
     <t>375</t>
@@ -3320,7 +3320,7 @@
     <t>Vet0chka</t>
   </si>
   <si>
-    <t>47 ч. 50 мин. 4 сек.</t>
+    <t>47 ч. 50 мин. 04 сек.</t>
   </si>
   <si>
     <t>380–381</t>
@@ -3365,7 +3365,7 @@
     <t>tatava</t>
   </si>
   <si>
-    <t>47 ч. 17 мин. 9 сек.</t>
+    <t>47 ч. 17 мин. 09 сек.</t>
   </si>
   <si>
     <t>386–387</t>
@@ -3374,7 +3374,7 @@
     <t>ggs</t>
   </si>
   <si>
-    <t>47 ч. 9 мин. 39 сек.</t>
+    <t>47 ч. 09 мин. 39 сек.</t>
   </si>
   <si>
     <t>nick_nickovich</t>
@@ -3386,7 +3386,7 @@
     <t>meze</t>
   </si>
   <si>
-    <t>47 ч. 0 мин. 12 сек.</t>
+    <t>47 ч. 00 мин. 12 сек.</t>
   </si>
   <si>
     <t>389</t>
@@ -3395,7 +3395,7 @@
     <t>nigmyar</t>
   </si>
   <si>
-    <t>47 ч. 1 мин. 27 сек.</t>
+    <t>47 ч. 01 мин. 27 сек.</t>
   </si>
   <si>
     <t>390–391</t>
@@ -3425,7 +3425,7 @@
     <t>Пользователь</t>
   </si>
   <si>
-    <t>46 ч. 47 мин. 5 сек.</t>
+    <t>46 ч. 47 мин. 05 сек.</t>
   </si>
   <si>
     <t>394</t>
@@ -3461,7 +3461,7 @@
     <t>humson</t>
   </si>
   <si>
-    <t>46 ч. 4 мин. 44 сек.</t>
+    <t>46 ч. 04 мин. 44 сек.</t>
   </si>
   <si>
     <t>398–399</t>
@@ -3470,7 +3470,7 @@
     <t>IlinaPolina</t>
   </si>
   <si>
-    <t>45 ч. 58 мин. 5 сек.</t>
+    <t>45 ч. 58 мин. 05 сек.</t>
   </si>
   <si>
     <t>Nookie78</t>
@@ -3500,7 +3500,7 @@
     <t>Origin</t>
   </si>
   <si>
-    <t>45 ч. 15 мин. 7 сек.</t>
+    <t>45 ч. 15 мин. 07 сек.</t>
   </si>
   <si>
     <t>машина</t>
@@ -3515,7 +3515,7 @@
     <t>Razip</t>
   </si>
   <si>
-    <t>45 ч. 5 мин. 53 сек.</t>
+    <t>45 ч. 05 мин. 53 сек.</t>
   </si>
   <si>
     <t>psv2014</t>
@@ -3530,7 +3530,7 @@
     <t>Fuuruub</t>
   </si>
   <si>
-    <t>45 ч. 7 мин. 51 сек.</t>
+    <t>45 ч. 07 мин. 51 сек.</t>
   </si>
   <si>
     <t>407</t>
@@ -3566,7 +3566,7 @@
     <t>Healt</t>
   </si>
   <si>
-    <t>43 ч. 2 мин. 33 сек.</t>
+    <t>43 ч. 02 мин. 33 сек.</t>
   </si>
   <si>
     <t>411</t>
@@ -3575,7 +3575,7 @@
     <t>Буквы</t>
   </si>
   <si>
-    <t>44 ч. 6 мин. 59 сек.</t>
+    <t>44 ч. 06 мин. 59 сек.</t>
   </si>
   <si>
     <t>412</t>
@@ -3653,7 +3653,7 @@
     <t>Нежная</t>
   </si>
   <si>
-    <t>43 ч. 6 мин. 37 сек.</t>
+    <t>43 ч. 06 мин. 37 сек.</t>
   </si>
   <si>
     <t>421–422</t>
@@ -3662,13 +3662,13 @@
     <t>Hovga</t>
   </si>
   <si>
-    <t>43 ч. 8 мин. 24 сек.</t>
+    <t>43 ч. 08 мин. 24 сек.</t>
   </si>
   <si>
     <t>samaja-samaja</t>
   </si>
   <si>
-    <t>43 ч. 8 мин. 1 сек.</t>
+    <t>43 ч. 08 мин. 01 сек.</t>
   </si>
   <si>
     <t>423</t>
@@ -3695,7 +3695,7 @@
     <t>AcidMan</t>
   </si>
   <si>
-    <t>42 ч. 46 мин. 6 сек.</t>
+    <t>42 ч. 46 мин. 06 сек.</t>
   </si>
   <si>
     <t>426–428</t>
@@ -3710,7 +3710,7 @@
     <t>Kanazei</t>
   </si>
   <si>
-    <t>42 ч. 36 мин. 8 сек.</t>
+    <t>42 ч. 36 мин. 08 сек.</t>
   </si>
   <si>
     <t>кляпавций</t>
@@ -3734,7 +3734,7 @@
     <t>Sfinks</t>
   </si>
   <si>
-    <t>42 ч. 9 мин. 14 сек.</t>
+    <t>42 ч. 09 мин. 14 сек.</t>
   </si>
   <si>
     <t>431–432</t>
@@ -3749,7 +3749,7 @@
     <t>WWW</t>
   </si>
   <si>
-    <t>42 ч. 0 мин. 18 сек.</t>
+    <t>42 ч. 00 мин. 18 сек.</t>
   </si>
   <si>
     <t>433–434</t>
@@ -3806,7 +3806,7 @@
     <t>vect</t>
   </si>
   <si>
-    <t>41 ч. 9 мин. 43 сек.</t>
+    <t>41 ч. 09 мин. 43 сек.</t>
   </si>
   <si>
     <t>440</t>
@@ -3815,7 +3815,7 @@
     <t>Jonny_E</t>
   </si>
   <si>
-    <t>41 ч. 4 мин. 51 сек.</t>
+    <t>41 ч. 04 мин. 51 сек.</t>
   </si>
   <si>
     <t>441–442</t>
@@ -3923,7 +3923,7 @@
     <t>RebeldeWay</t>
   </si>
   <si>
-    <t>40 ч. 8 мин. 52 сек.</t>
+    <t>40 ч. 08 мин. 52 сек.</t>
   </si>
   <si>
     <t>455</t>
@@ -3932,7 +3932,7 @@
     <t>Andre_Macareno</t>
   </si>
   <si>
-    <t>39 ч. 52 мин. 7 сек.</t>
+    <t>39 ч. 52 мин. 07 сек.</t>
   </si>
   <si>
     <t>456</t>
@@ -3989,7 +3989,7 @@
     <t>baobab67</t>
   </si>
   <si>
-    <t>39 ч. 2 мин. 29 сек.</t>
+    <t>39 ч. 02 мин. 29 сек.</t>
   </si>
   <si>
     <t>463–464</t>
@@ -4070,7 +4070,7 @@
     <t>бэтман</t>
   </si>
   <si>
-    <t>38 ч. 35 мин. 2 сек.</t>
+    <t>38 ч. 35 мин. 02 сек.</t>
   </si>
   <si>
     <t>474</t>
@@ -4088,7 +4088,7 @@
     <t>элля</t>
   </si>
   <si>
-    <t>38 ч. 28 мин. 9 сек.</t>
+    <t>38 ч. 28 мин. 09 сек.</t>
   </si>
   <si>
     <t>Креслоноцец</t>
@@ -4115,7 +4115,7 @@
     <t>ALEKS-POWER</t>
   </si>
   <si>
-    <t>38 ч. 16 мин. 5 сек.</t>
+    <t>38 ч. 16 мин. 05 сек.</t>
   </si>
   <si>
     <t>480–482</t>
@@ -4130,13 +4130,13 @@
     <t>Groghal</t>
   </si>
   <si>
-    <t>38 ч. 3 мин. 40 сек.</t>
+    <t>38 ч. 03 мин. 40 сек.</t>
   </si>
   <si>
     <t>Мариска</t>
   </si>
   <si>
-    <t>38 ч. 8 мин. 50 сек.</t>
+    <t>38 ч. 08 мин. 50 сек.</t>
   </si>
   <si>
     <t>483–486</t>
@@ -4145,7 +4145,7 @@
     <t>sanek2144</t>
   </si>
   <si>
-    <t>38 ч. 6 мин. 23 сек.</t>
+    <t>38 ч. 06 мин. 23 сек.</t>
   </si>
   <si>
     <t>kavalova</t>
@@ -4157,7 +4157,7 @@
     <t>ILyaDens</t>
   </si>
   <si>
-    <t>38 ч. 1 мин. 47 сек.</t>
+    <t>38 ч. 01 мин. 47 сек.</t>
   </si>
   <si>
     <t>newstarmaryn</t>
@@ -4178,7 +4178,7 @@
     <t>Шизонт</t>
   </si>
   <si>
-    <t>38 ч. 9 мин. 18 сек.</t>
+    <t>38 ч. 09 мин. 18 сек.</t>
   </si>
   <si>
     <t>8ele8</t>
@@ -4232,19 +4232,19 @@
     <t>Galaad</t>
   </si>
   <si>
-    <t>37 ч. 8 мин. 1 сек.</t>
+    <t>37 ч. 08 мин. 01 сек.</t>
   </si>
   <si>
     <t>anonym412</t>
   </si>
   <si>
-    <t>37 ч. 3 мин. 14 сек.</t>
+    <t>37 ч. 03 мин. 14 сек.</t>
   </si>
   <si>
     <t>hrenovaya_klava</t>
   </si>
   <si>
-    <t>37 ч. 9 мин. 45 сек.</t>
+    <t>37 ч. 09 мин. 45 сек.</t>
   </si>
   <si>
     <t>498–499</t>
@@ -4283,7 +4283,7 @@
     <t>genie_1855</t>
   </si>
   <si>
-    <t>36 ч. 45 мин. 8 сек.</t>
+    <t>36 ч. 45 мин. 08 сек.</t>
   </si>
   <si>
     <t>_Gia_</t>
@@ -4364,7 +4364,7 @@
     <t>Дмитрий2</t>
   </si>
   <si>
-    <t>36 ч. 1 мин. 43 сек.</t>
+    <t>36 ч. 01 мин. 43 сек.</t>
   </si>
   <si>
     <t>513</t>
@@ -4388,7 +4388,7 @@
     <t>impress_che</t>
   </si>
   <si>
-    <t>35 ч. 14 мин. 7 сек.</t>
+    <t>35 ч. 14 мин. 07 сек.</t>
   </si>
   <si>
     <t>feniks</t>
@@ -4418,7 +4418,7 @@
     <t>SEFER</t>
   </si>
   <si>
-    <t>35 ч. 53 мин. 4 сек.</t>
+    <t>35 ч. 53 мин. 04 сек.</t>
   </si>
   <si>
     <t>fabulaspb</t>
@@ -4439,7 +4439,7 @@
     <t>korzhik-by</t>
   </si>
   <si>
-    <t>35 ч. 38 мин. 8 сек.</t>
+    <t>35 ч. 38 мин. 08 сек.</t>
   </si>
   <si>
     <t>andyudol</t>
@@ -4466,7 +4466,7 @@
     <t>Атата</t>
   </si>
   <si>
-    <t>35 ч. 32 мин. 7 сек.</t>
+    <t>35 ч. 32 мин. 07 сек.</t>
   </si>
   <si>
     <t>527</t>
@@ -4475,7 +4475,7 @@
     <t>большой_плавец</t>
   </si>
   <si>
-    <t>35 ч. 29 мин. 3 сек.</t>
+    <t>35 ч. 29 мин. 03 сек.</t>
   </si>
   <si>
     <t>528</t>
@@ -4484,7 +4484,7 @@
     <t>Ai_bek</t>
   </si>
   <si>
-    <t>35 ч. 8 мин. 16 сек.</t>
+    <t>35 ч. 08 мин. 16 сек.</t>
   </si>
   <si>
     <t>529–530</t>
@@ -4493,13 +4493,13 @@
     <t>kageneko</t>
   </si>
   <si>
-    <t>35 ч. 8 мин. 0 сек.</t>
+    <t>35 ч. 08 мин. 00 сек.</t>
   </si>
   <si>
     <t>VanDyk</t>
   </si>
   <si>
-    <t>35 ч. 5 мин. 35 сек.</t>
+    <t>35 ч. 05 мин. 35 сек.</t>
   </si>
   <si>
     <t>531</t>
@@ -4523,7 +4523,7 @@
     <t>Клавишник</t>
   </si>
   <si>
-    <t>35 ч. 2 мин. 50 сек.</t>
+    <t>35 ч. 02 мин. 50 сек.</t>
   </si>
   <si>
     <t>534</t>
@@ -4541,7 +4541,7 @@
     <t>yurgen55</t>
   </si>
   <si>
-    <t>34 ч. 46 мин. 1 сек.</t>
+    <t>34 ч. 46 мин. 01 сек.</t>
   </si>
   <si>
     <t>vova555</t>
@@ -4604,31 +4604,31 @@
     <t>Пофантазируем7</t>
   </si>
   <si>
-    <t>34 ч. 6 мин. 15 сек.</t>
+    <t>34 ч. 06 мин. 15 сек.</t>
   </si>
   <si>
     <t>diskorkl</t>
   </si>
   <si>
-    <t>34 ч. 7 мин. 21 сек.</t>
+    <t>34 ч. 07 мин. 21 сек.</t>
   </si>
   <si>
     <t>ИльдарВолжский</t>
   </si>
   <si>
-    <t>34 ч. 9 мин. 6 сек.</t>
+    <t>34 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>Leh</t>
   </si>
   <si>
-    <t>34 ч. 5 мин. 2 сек.</t>
+    <t>34 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>пава</t>
   </si>
   <si>
-    <t>34 ч. 6 мин. 35 сек.</t>
+    <t>34 ч. 06 мин. 35 сек.</t>
   </si>
   <si>
     <t>548–550</t>
@@ -4637,13 +4637,13 @@
     <t>1olegan</t>
   </si>
   <si>
-    <t>34 ч. 0 мин. 50 сек.</t>
+    <t>34 ч. 00 мин. 50 сек.</t>
   </si>
   <si>
     <t>Sandi</t>
   </si>
   <si>
-    <t>34 ч. 3 мин. 18 сек.</t>
+    <t>34 ч. 03 мин. 18 сек.</t>
   </si>
   <si>
     <t>novkostya</t>
@@ -4658,7 +4658,7 @@
     <t>Кузькина</t>
   </si>
   <si>
-    <t>34 ч. 8 мин. 27 сек.</t>
+    <t>34 ч. 08 мин. 27 сек.</t>
   </si>
   <si>
     <t>Кадий</t>
@@ -4670,7 +4670,7 @@
     <t>Slavik89</t>
   </si>
   <si>
-    <t>33 ч. 54 мин. 3 сек.</t>
+    <t>33 ч. 54 мин. 03 сек.</t>
   </si>
   <si>
     <t>feinstein</t>
@@ -4685,7 +4685,7 @@
     <t>darkneon</t>
   </si>
   <si>
-    <t>33 ч. 54 мин. 4 сек.</t>
+    <t>33 ч. 54 мин. 04 сек.</t>
   </si>
   <si>
     <t>Victor_storm</t>
@@ -4700,7 +4700,7 @@
     <t>Azrae11e</t>
   </si>
   <si>
-    <t>33 ч. 47 мин. 8 сек.</t>
+    <t>33 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>Everything</t>
@@ -4787,7 +4787,7 @@
     <t>xcislav</t>
   </si>
   <si>
-    <t>33 ч. 16 мин. 4 сек.</t>
+    <t>33 ч. 16 мин. 04 сек.</t>
   </si>
   <si>
     <t>anazk</t>
@@ -4817,7 +4817,7 @@
     <t>WellMaxT</t>
   </si>
   <si>
-    <t>33 ч. 9 мин. 43 сек.</t>
+    <t>33 ч. 09 мин. 43 сек.</t>
   </si>
   <si>
     <t>fianit</t>
@@ -4829,13 +4829,13 @@
     <t>second</t>
   </si>
   <si>
-    <t>33 ч. 9 мин. 50 сек.</t>
+    <t>33 ч. 09 мин. 50 сек.</t>
   </si>
   <si>
     <t>exploration</t>
   </si>
   <si>
-    <t>33 ч. 3 мин. 45 сек.</t>
+    <t>33 ч. 03 мин. 45 сек.</t>
   </si>
   <si>
     <t>577–579</t>
@@ -4844,19 +4844,19 @@
     <t>Lusil</t>
   </si>
   <si>
-    <t>33 ч. 4 мин. 28 сек.</t>
+    <t>33 ч. 04 мин. 28 сек.</t>
   </si>
   <si>
     <t>хандеш</t>
   </si>
   <si>
-    <t>33 ч. 3 мин. 0 сек.</t>
+    <t>33 ч. 03 мин. 00 сек.</t>
   </si>
   <si>
     <t>nosferatum</t>
   </si>
   <si>
-    <t>33 ч. 3 мин. 6 сек.</t>
+    <t>33 ч. 03 мин. 06 сек.</t>
   </si>
   <si>
     <t>580–582</t>
@@ -4871,7 +4871,7 @@
     <t>tvger</t>
   </si>
   <si>
-    <t>32 ч. 58 мин. 9 сек.</t>
+    <t>32 ч. 58 мин. 09 сек.</t>
   </si>
   <si>
     <t>Frank_Drebin</t>
@@ -4895,7 +4895,7 @@
     <t>GvOzDi</t>
   </si>
   <si>
-    <t>32 ч. 48 мин. 4 сек.</t>
+    <t>32 ч. 48 мин. 04 сек.</t>
   </si>
   <si>
     <t>ТТВ</t>
@@ -4916,7 +4916,7 @@
     <t>Artesik</t>
   </si>
   <si>
-    <t>32 ч. 39 мин. 7 сек.</t>
+    <t>32 ч. 39 мин. 07 сек.</t>
   </si>
   <si>
     <t>588–589</t>
@@ -4949,7 +4949,7 @@
     <t>belkaoboroten</t>
   </si>
   <si>
-    <t>32 ч. 8 мин. 32 сек.</t>
+    <t>32 ч. 08 мин. 32 сек.</t>
   </si>
   <si>
     <t>592</t>
@@ -4976,7 +4976,7 @@
     <t>Alkhor</t>
   </si>
   <si>
-    <t>32 ч. 5 мин. 45 сек.</t>
+    <t>32 ч. 05 мин. 45 сек.</t>
   </si>
   <si>
     <t>595–596</t>
@@ -4985,13 +4985,13 @@
     <t>Шмакодявка</t>
   </si>
   <si>
-    <t>32 ч. 3 мин. 50 сек.</t>
+    <t>32 ч. 03 мин. 50 сек.</t>
   </si>
   <si>
     <t>СераБелка</t>
   </si>
   <si>
-    <t>32 ч. 5 мин. 23 сек.</t>
+    <t>32 ч. 05 мин. 23 сек.</t>
   </si>
   <si>
     <t>597–598</t>
@@ -5030,7 +5030,7 @@
     <t>Cerry-Ledy</t>
   </si>
   <si>
-    <t>31 ч. 45 мин. 2 сек.</t>
+    <t>31 ч. 45 мин. 02 сек.</t>
   </si>
   <si>
     <t>Fenex</t>
@@ -5051,7 +5051,7 @@
     <t>wizmon</t>
   </si>
   <si>
-    <t>31 ч. 43 мин. 6 сек.</t>
+    <t>31 ч. 43 мин. 06 сек.</t>
   </si>
   <si>
     <t>Dencom</t>
@@ -5072,7 +5072,7 @@
     <t>December</t>
   </si>
   <si>
-    <t>31 ч. 37 мин. 5 сек.</t>
+    <t>31 ч. 37 мин. 05 сек.</t>
   </si>
   <si>
     <t>608</t>
@@ -5096,7 +5096,7 @@
     <t>Darwinian</t>
   </si>
   <si>
-    <t>31 ч. 22 мин. 8 сек.</t>
+    <t>31 ч. 22 мин. 08 сек.</t>
   </si>
   <si>
     <t>Konstantin_S</t>
@@ -5111,7 +5111,7 @@
     <t>Nuria</t>
   </si>
   <si>
-    <t>31 ч. 17 мин. 0 сек.</t>
+    <t>31 ч. 17 мин. 00 сек.</t>
   </si>
   <si>
     <t>лаоцзы</t>
@@ -5126,13 +5126,13 @@
     <t>Annabeth</t>
   </si>
   <si>
-    <t>31 ч. 12 мин. 2 сек.</t>
+    <t>31 ч. 12 мин. 02 сек.</t>
   </si>
   <si>
     <t>Maks83</t>
   </si>
   <si>
-    <t>31 ч. 9 мин. 10 сек.</t>
+    <t>31 ч. 09 мин. 10 сек.</t>
   </si>
   <si>
     <t>616</t>
@@ -5141,7 +5141,7 @@
     <t>suprem-012</t>
   </si>
   <si>
-    <t>31 ч. 8 мин. 36 сек.</t>
+    <t>31 ч. 08 мин. 36 сек.</t>
   </si>
   <si>
     <t>617–618</t>
@@ -5150,13 +5150,13 @@
     <t>Lexanni</t>
   </si>
   <si>
-    <t>31 ч. 3 мин. 47 сек.</t>
+    <t>31 ч. 03 мин. 47 сек.</t>
   </si>
   <si>
     <t>endagorion</t>
   </si>
   <si>
-    <t>31 ч. 3 мин. 7 сек.</t>
+    <t>31 ч. 03 мин. 07 сек.</t>
   </si>
   <si>
     <t>619</t>
@@ -5186,7 +5186,7 @@
     <t>Tigerwood</t>
   </si>
   <si>
-    <t>30 ч. 46 мин. 6 сек.</t>
+    <t>30 ч. 46 мин. 06 сек.</t>
   </si>
   <si>
     <t>623–624</t>
@@ -5243,7 +5243,7 @@
     <t>teacherIgor</t>
   </si>
   <si>
-    <t>30 ч. 31 мин. 0 сек.</t>
+    <t>30 ч. 31 мин. 00 сек.</t>
   </si>
   <si>
     <t>631–635</t>
@@ -5264,7 +5264,7 @@
     <t>KaliaN-93RUS</t>
   </si>
   <si>
-    <t>30 ч. 27 мин. 8 сек.</t>
+    <t>30 ч. 27 мин. 08 сек.</t>
   </si>
   <si>
     <t>jassy100</t>
@@ -5327,13 +5327,13 @@
     <t>Суоно</t>
   </si>
   <si>
-    <t>30 ч. 6 мин. 13 сек.</t>
+    <t>30 ч. 06 мин. 13 сек.</t>
   </si>
   <si>
     <t>ЕвгенияСеверная</t>
   </si>
   <si>
-    <t>30 ч. 11 мин. 1 сек.</t>
+    <t>30 ч. 11 мин. 01 сек.</t>
   </si>
   <si>
     <t>644–645</t>
@@ -5393,7 +5393,7 @@
     <t>IvanProskura</t>
   </si>
   <si>
-    <t>29 ч. 40 мин. 6 сек.</t>
+    <t>29 ч. 40 мин. 06 сек.</t>
   </si>
   <si>
     <t>косогор_</t>
@@ -5450,7 +5450,7 @@
     <t>Aleks1700</t>
   </si>
   <si>
-    <t>29 ч. 23 мин. 9 сек.</t>
+    <t>29 ч. 23 мин. 09 сек.</t>
   </si>
   <si>
     <t>660</t>
@@ -5468,7 +5468,7 @@
     <t>AstonMartinDB10</t>
   </si>
   <si>
-    <t>29 ч. 2 мин. 30 сек.</t>
+    <t>29 ч. 02 мин. 30 сек.</t>
   </si>
   <si>
     <t>662–666</t>
@@ -5483,25 +5483,25 @@
     <t>emercomisha</t>
   </si>
   <si>
-    <t>29 ч. 8 мин. 23 сек.</t>
+    <t>29 ч. 08 мин. 23 сек.</t>
   </si>
   <si>
     <t>Michelik</t>
   </si>
   <si>
-    <t>29 ч. 7 мин. 17 сек.</t>
+    <t>29 ч. 07 мин. 17 сек.</t>
   </si>
   <si>
     <t>Archiffa</t>
   </si>
   <si>
-    <t>29 ч. 8 мин. 0 сек.</t>
+    <t>29 ч. 08 мин. 00 сек.</t>
   </si>
   <si>
     <t>Olfy</t>
   </si>
   <si>
-    <t>29 ч. 6 мин. 51 сек.</t>
+    <t>29 ч. 06 мин. 51 сек.</t>
   </si>
   <si>
     <t>667–669</t>
@@ -5510,19 +5510,19 @@
     <t>АЛЕКС99</t>
   </si>
   <si>
-    <t>29 ч. 1 мин. 59 сек.</t>
+    <t>29 ч. 01 мин. 59 сек.</t>
   </si>
   <si>
     <t>гага</t>
   </si>
   <si>
-    <t>29 ч. 1 мин. 33 сек.</t>
+    <t>29 ч. 01 мин. 33 сек.</t>
   </si>
   <si>
     <t>Smouke</t>
   </si>
   <si>
-    <t>29 ч. 1 мин. 39 сек.</t>
+    <t>29 ч. 01 мин. 39 сек.</t>
   </si>
   <si>
     <t>670–672</t>
@@ -5567,7 +5567,7 @@
     <t>юриус</t>
   </si>
   <si>
-    <t>28 ч. 48 мин. 4 сек.</t>
+    <t>28 ч. 48 мин. 04 сек.</t>
   </si>
   <si>
     <t>A-Cor</t>
@@ -5585,7 +5585,7 @@
     <t>Fudo</t>
   </si>
   <si>
-    <t>28 ч. 47 мин. 8 сек.</t>
+    <t>28 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>679–680</t>
@@ -5600,7 +5600,7 @@
     <t>FunkyBoy</t>
   </si>
   <si>
-    <t>28 ч. 43 мин. 2 сек.</t>
+    <t>28 ч. 43 мин. 02 сек.</t>
   </si>
   <si>
     <t>681–684</t>
@@ -5627,7 +5627,7 @@
     <t>Dimax-</t>
   </si>
   <si>
-    <t>28 ч. 36 мин. 8 сек.</t>
+    <t>28 ч. 36 мин. 08 сек.</t>
   </si>
   <si>
     <t>685–686</t>
@@ -5666,7 +5666,7 @@
     <t>timnika</t>
   </si>
   <si>
-    <t>28 ч. 22 мин. 6 сек.</t>
+    <t>28 ч. 22 мин. 06 сек.</t>
   </si>
   <si>
     <t>вазовик</t>
@@ -5678,7 +5678,7 @@
     <t>Sauvage</t>
   </si>
   <si>
-    <t>28 ч. 20 мин. 4 сек.</t>
+    <t>28 ч. 20 мин. 04 сек.</t>
   </si>
   <si>
     <t>692</t>
@@ -5705,19 +5705,19 @@
     <t>lelikanet</t>
   </si>
   <si>
-    <t>28 ч. 5 мин. 21 сек.</t>
+    <t>28 ч. 05 мин. 21 сек.</t>
   </si>
   <si>
     <t>Vi2GaN</t>
   </si>
   <si>
-    <t>28 ч. 5 мин. 58 сек.</t>
+    <t>28 ч. 05 мин. 58 сек.</t>
   </si>
   <si>
     <t>strawberries</t>
   </si>
   <si>
-    <t>28 ч. 8 мин. 29 сек.</t>
+    <t>28 ч. 08 мин. 29 сек.</t>
   </si>
   <si>
     <t>697</t>
@@ -5741,7 +5741,7 @@
     <t>непотомуль</t>
   </si>
   <si>
-    <t>27 ч. 57 мин. 4 сек.</t>
+    <t>27 ч. 57 мин. 04 сек.</t>
   </si>
   <si>
     <t>700–702</t>
@@ -5756,7 +5756,7 @@
     <t>Мирный</t>
   </si>
   <si>
-    <t>27 ч. 46 мин. 6 сек.</t>
+    <t>27 ч. 46 мин. 06 сек.</t>
   </si>
   <si>
     <t>Washed</t>
@@ -5783,7 +5783,7 @@
     <t>Чумаходка</t>
   </si>
   <si>
-    <t>27 ч. 48 мин. 4 сек.</t>
+    <t>27 ч. 48 мин. 04 сек.</t>
   </si>
   <si>
     <t>706–710</t>
@@ -5825,7 +5825,7 @@
     <t>Duke0013</t>
   </si>
   <si>
-    <t>27 ч. 33 мин. 5 сек.</t>
+    <t>27 ч. 33 мин. 05 сек.</t>
   </si>
   <si>
     <t>712–716</t>
@@ -5876,7 +5876,7 @@
     <t>1912</t>
   </si>
   <si>
-    <t>27 ч. 5 мин. 49 сек.</t>
+    <t>27 ч. 05 мин. 49 сек.</t>
   </si>
   <si>
     <t>719–723</t>
@@ -5885,31 +5885,31 @@
     <t>alexrus79</t>
   </si>
   <si>
-    <t>27 ч. 2 мин. 41 сек.</t>
+    <t>27 ч. 02 мин. 41 сек.</t>
   </si>
   <si>
     <t>Sofyx</t>
   </si>
   <si>
-    <t>27 ч. 4 мин. 0 сек.</t>
+    <t>27 ч. 04 мин. 00 сек.</t>
   </si>
   <si>
     <t>Aftermathen</t>
   </si>
   <si>
-    <t>27 ч. 1 мин. 28 сек.</t>
+    <t>27 ч. 01 мин. 28 сек.</t>
   </si>
   <si>
     <t>Kemp</t>
   </si>
   <si>
-    <t>27 ч. 1 мин. 47 сек.</t>
+    <t>27 ч. 01 мин. 47 сек.</t>
   </si>
   <si>
     <t>Smylic</t>
   </si>
   <si>
-    <t>27 ч. 2 мин. 10 сек.</t>
+    <t>27 ч. 02 мин. 10 сек.</t>
   </si>
   <si>
     <t>724–729</t>
@@ -5930,7 +5930,7 @@
     <t>200поСкоростной</t>
   </si>
   <si>
-    <t>26 ч. 56 мин. 8 сек.</t>
+    <t>26 ч. 56 мин. 08 сек.</t>
   </si>
   <si>
     <t>oligarh83</t>
@@ -5969,7 +5969,7 @@
     <t>cinis</t>
   </si>
   <si>
-    <t>26 ч. 50 мин. 5 сек.</t>
+    <t>26 ч. 50 мин. 05 сек.</t>
   </si>
   <si>
     <t>733–737</t>
@@ -5984,13 +5984,13 @@
     <t>name_snrl</t>
   </si>
   <si>
-    <t>26 ч. 48 мин. 8 сек.</t>
+    <t>26 ч. 48 мин. 08 сек.</t>
   </si>
   <si>
     <t>Клаус</t>
   </si>
   <si>
-    <t>26 ч. 46 мин. 2 сек.</t>
+    <t>26 ч. 46 мин. 02 сек.</t>
   </si>
   <si>
     <t>aShark</t>
@@ -6002,7 +6002,7 @@
     <t>Tolstij</t>
   </si>
   <si>
-    <t>26 ч. 45 мин. 6 сек.</t>
+    <t>26 ч. 45 мин. 06 сек.</t>
   </si>
   <si>
     <t>738</t>
@@ -6053,7 +6053,7 @@
     <t>Бурик</t>
   </si>
   <si>
-    <t>26 ч. 32 мин. 1 сек.</t>
+    <t>26 ч. 32 мин. 01 сек.</t>
   </si>
   <si>
     <t>natali</t>
@@ -6101,7 +6101,7 @@
     <t>kimisfan</t>
   </si>
   <si>
-    <t>26 ч. 24 мин. 8 сек.</t>
+    <t>26 ч. 24 мин. 08 сек.</t>
   </si>
   <si>
     <t>АнархистЪ</t>
@@ -6128,7 +6128,7 @@
     <t>I-and-I</t>
   </si>
   <si>
-    <t>26 ч. 9 мин. 9 сек.</t>
+    <t>26 ч. 09 мин. 09 сек.</t>
   </si>
   <si>
     <t>756–758</t>
@@ -6137,19 +6137,19 @@
     <t>VolodyaRzn</t>
   </si>
   <si>
-    <t>26 ч. 8 мин. 36 сек.</t>
+    <t>26 ч. 08 мин. 36 сек.</t>
   </si>
   <si>
     <t>plin2s</t>
   </si>
   <si>
-    <t>26 ч. 6 мин. 48 сек.</t>
+    <t>26 ч. 06 мин. 48 сек.</t>
   </si>
   <si>
     <t>eka42003</t>
   </si>
   <si>
-    <t>26 ч. 8 мин. 10 сек.</t>
+    <t>26 ч. 08 мин. 10 сек.</t>
   </si>
   <si>
     <t>759–760</t>
@@ -6158,13 +6158,13 @@
     <t>miha911208</t>
   </si>
   <si>
-    <t>26 ч. 3 мин. 47 сек.</t>
+    <t>26 ч. 03 мин. 47 сек.</t>
   </si>
   <si>
     <t>leer</t>
   </si>
   <si>
-    <t>26 ч. 2 мин. 6 сек.</t>
+    <t>26 ч. 02 мин. 06 сек.</t>
   </si>
   <si>
     <t>761–764</t>
@@ -6173,13 +6173,13 @@
     <t>fackT</t>
   </si>
   <si>
-    <t>25 ч. 51 мин. 8 сек.</t>
+    <t>25 ч. 51 мин. 08 сек.</t>
   </si>
   <si>
     <t>Manmax10</t>
   </si>
   <si>
-    <t>25 ч. 54 мин. 9 сек.</t>
+    <t>25 ч. 54 мин. 09 сек.</t>
   </si>
   <si>
     <t>Zzzuzuka</t>
@@ -6191,7 +6191,7 @@
     <t>arhibaboon</t>
   </si>
   <si>
-    <t>25 ч. 54 мин. 1 сек.</t>
+    <t>25 ч. 54 мин. 01 сек.</t>
   </si>
   <si>
     <t>765–771</t>
@@ -6236,7 +6236,7 @@
     <t>korden</t>
   </si>
   <si>
-    <t>25 ч. 48 мин. 5 сек.</t>
+    <t>25 ч. 48 мин. 05 сек.</t>
   </si>
   <si>
     <t>772–774</t>
@@ -6245,7 +6245,7 @@
     <t>Стартуем</t>
   </si>
   <si>
-    <t>25 ч. 43 мин. 8 сек.</t>
+    <t>25 ч. 43 мин. 08 сек.</t>
   </si>
   <si>
     <t>DoYourJob</t>
@@ -6320,13 +6320,13 @@
     <t>Алексей_Дао</t>
   </si>
   <si>
-    <t>25 ч. 28 мин. 1 сек.</t>
+    <t>25 ч. 28 мин. 01 сек.</t>
   </si>
   <si>
     <t>vvibm</t>
   </si>
   <si>
-    <t>25 ч. 28 мин. 3 сек.</t>
+    <t>25 ч. 28 мин. 03 сек.</t>
   </si>
   <si>
     <t>785–792</t>
@@ -6353,7 +6353,7 @@
     <t>D1mchik</t>
   </si>
   <si>
-    <t>25 ч. 22 мин. 3 сек.</t>
+    <t>25 ч. 22 мин. 03 сек.</t>
   </si>
   <si>
     <t>зум-зум</t>
@@ -6410,7 +6410,7 @@
     <t>Кросул</t>
   </si>
   <si>
-    <t>25 ч. 13 мин. 6 сек.</t>
+    <t>25 ч. 13 мин. 06 сек.</t>
   </si>
   <si>
     <t>svonun</t>
@@ -6425,25 +6425,25 @@
     <t>Trantar</t>
   </si>
   <si>
-    <t>25 ч. 8 мин. 7 сек.</t>
+    <t>25 ч. 08 мин. 07 сек.</t>
   </si>
   <si>
     <t>Artursrst</t>
   </si>
   <si>
-    <t>25 ч. 9 мин. 29 сек.</t>
+    <t>25 ч. 09 мин. 29 сек.</t>
   </si>
   <si>
     <t>Муркошка</t>
   </si>
   <si>
-    <t>25 ч. 6 мин. 3 сек.</t>
+    <t>25 ч. 06 мин. 03 сек.</t>
   </si>
   <si>
     <t>Razorage</t>
   </si>
   <si>
-    <t>25 ч. 6 мин. 34 сек.</t>
+    <t>25 ч. 06 мин. 34 сек.</t>
   </si>
   <si>
     <t>803–805</t>
@@ -6452,19 +6452,19 @@
     <t>flebushe</t>
   </si>
   <si>
-    <t>25 ч. 3 мин. 44 сек.</t>
+    <t>25 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>Kanzi</t>
   </si>
   <si>
-    <t>25 ч. 3 мин. 24 сек.</t>
+    <t>25 ч. 03 мин. 24 сек.</t>
   </si>
   <si>
     <t>LevinGTO</t>
   </si>
   <si>
-    <t>25 ч. 2 мин. 51 сек.</t>
+    <t>25 ч. 02 мин. 51 сек.</t>
   </si>
   <si>
     <t>806–813</t>
@@ -6485,7 +6485,7 @@
     <t>оно</t>
   </si>
   <si>
-    <t>24 ч. 56 мин. 9 сек.</t>
+    <t>24 ч. 56 мин. 09 сек.</t>
   </si>
   <si>
     <t>shicotus</t>
@@ -6503,7 +6503,7 @@
     <t>die-hard</t>
   </si>
   <si>
-    <t>24 ч. 57 мин. 6 сек.</t>
+    <t>24 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>kcennia</t>
@@ -6515,7 +6515,7 @@
     <t>Passer</t>
   </si>
   <si>
-    <t>24 ч. 58 мин. 9 сек.</t>
+    <t>24 ч. 58 мин. 09 сек.</t>
   </si>
   <si>
     <t>814–815</t>
@@ -6545,7 +6545,7 @@
     <t>68Liss</t>
   </si>
   <si>
-    <t>24 ч. 43 мин. 6 сек.</t>
+    <t>24 ч. 43 мин. 06 сек.</t>
   </si>
   <si>
     <t>818</t>
@@ -6563,7 +6563,7 @@
     <t>IVIVI</t>
   </si>
   <si>
-    <t>24 ч. 32 мин. 7 сек.</t>
+    <t>24 ч. 32 мин. 07 сек.</t>
   </si>
   <si>
     <t>820–822</t>
@@ -6608,7 +6608,7 @@
     <t>Sexyponochka</t>
   </si>
   <si>
-    <t>25 ч. 26 мин. 5 сек.</t>
+    <t>25 ч. 26 мин. 05 сек.</t>
   </si>
   <si>
     <t>LuckyPussy</t>
@@ -6644,13 +6644,13 @@
     <t>VOLLUF</t>
   </si>
   <si>
-    <t>24 ч. 6 мин. 17 сек.</t>
+    <t>24 ч. 06 мин. 17 сек.</t>
   </si>
   <si>
     <t>sa1k</t>
   </si>
   <si>
-    <t>24 ч. 8 мин. 48 сек.</t>
+    <t>24 ч. 08 мин. 48 сек.</t>
   </si>
   <si>
     <t>832–835</t>
@@ -6659,25 +6659,25 @@
     <t>nikitastech2010</t>
   </si>
   <si>
-    <t>24 ч. 4 мин. 14 сек.</t>
+    <t>24 ч. 04 мин. 14 сек.</t>
   </si>
   <si>
     <t>ДядяСаша</t>
   </si>
   <si>
-    <t>24 ч. 4 мин. 41 сек.</t>
+    <t>24 ч. 04 мин. 41 сек.</t>
   </si>
   <si>
     <t>Попугай_Кеша</t>
   </si>
   <si>
-    <t>24 ч. 2 мин. 18 сек.</t>
+    <t>24 ч. 02 мин. 18 сек.</t>
   </si>
   <si>
     <t>Lien</t>
   </si>
   <si>
-    <t>24 ч. 1 мин. 19 сек.</t>
+    <t>24 ч. 01 мин. 19 сек.</t>
   </si>
   <si>
     <t>836–838</t>
@@ -6686,7 +6686,7 @@
     <t>sakhsod112</t>
   </si>
   <si>
-    <t>23 ч. 59 мин. 7 сек.</t>
+    <t>23 ч. 59 мин. 07 сек.</t>
   </si>
   <si>
     <t>бульварылжи</t>
@@ -6698,7 +6698,7 @@
     <t>PurpleFish</t>
   </si>
   <si>
-    <t>23 ч. 58 мин. 7 сек.</t>
+    <t>23 ч. 58 мин. 07 сек.</t>
   </si>
   <si>
     <t>839–843</t>
@@ -6725,7 +6725,7 @@
     <t>Емерал</t>
   </si>
   <si>
-    <t>23 ч. 53 мин. 7 сек.</t>
+    <t>23 ч. 53 мин. 07 сек.</t>
   </si>
   <si>
     <t>asfidoklik</t>
@@ -6752,7 +6752,7 @@
     <t>Yogi</t>
   </si>
   <si>
-    <t>24 ч. 5 мин. 44 сек.</t>
+    <t>24 ч. 05 мин. 44 сек.</t>
   </si>
   <si>
     <t>847–849</t>
@@ -6782,13 +6782,13 @@
     <t>kasiveyser</t>
   </si>
   <si>
-    <t>23 ч. 38 мин. 4 сек.</t>
+    <t>23 ч. 38 мин. 04 сек.</t>
   </si>
   <si>
     <t>corey_haim</t>
   </si>
   <si>
-    <t>23 ч. 37 мин. 7 сек.</t>
+    <t>23 ч. 37 мин. 07 сек.</t>
   </si>
   <si>
     <t>Леоня</t>
@@ -6803,7 +6803,7 @@
     <t>Kagaa</t>
   </si>
   <si>
-    <t>23 ч. 35 мин. 8 сек.</t>
+    <t>23 ч. 35 мин. 08 сек.</t>
   </si>
   <si>
     <t>arthur_krolikov</t>
@@ -6836,7 +6836,7 @@
     <t>raschoska</t>
   </si>
   <si>
-    <t>23 ч. 26 мин. 7 сек.</t>
+    <t>23 ч. 26 мин. 07 сек.</t>
   </si>
   <si>
     <t>suenot</t>
@@ -6890,7 +6890,7 @@
     <t>IvicaEkimovsky</t>
   </si>
   <si>
-    <t>23 ч. 18 мин. 4 сек.</t>
+    <t>23 ч. 18 мин. 04 сек.</t>
   </si>
   <si>
     <t>вовик58</t>
@@ -6914,7 +6914,7 @@
     <t>Gistereziz</t>
   </si>
   <si>
-    <t>23 ч. 17 мин. 5 сек.</t>
+    <t>23 ч. 17 мин. 05 сек.</t>
   </si>
   <si>
     <t>871–872</t>
@@ -6938,37 +6938,37 @@
     <t>ZompSnail</t>
   </si>
   <si>
-    <t>23 ч. 8 мин. 44 сек.</t>
+    <t>23 ч. 08 мин. 44 сек.</t>
   </si>
   <si>
     <t>NLA</t>
   </si>
   <si>
-    <t>23 ч. 9 мин. 5 сек.</t>
+    <t>23 ч. 09 мин. 05 сек.</t>
   </si>
   <si>
     <t>Dzihiko</t>
   </si>
   <si>
-    <t>23 ч. 8 мин. 10 сек.</t>
+    <t>23 ч. 08 мин. 10 сек.</t>
   </si>
   <si>
     <t>gurke</t>
   </si>
   <si>
-    <t>23 ч. 8 мин. 35 сек.</t>
+    <t>23 ч. 08 мин. 35 сек.</t>
   </si>
   <si>
     <t>sorrovv</t>
   </si>
   <si>
-    <t>23 ч. 6 мин. 33 сек.</t>
+    <t>23 ч. 06 мин. 33 сек.</t>
   </si>
   <si>
     <t>ifer</t>
   </si>
   <si>
-    <t>23 ч. 8 мин. 13 сек.</t>
+    <t>23 ч. 08 мин. 13 сек.</t>
   </si>
   <si>
     <t>879–881</t>
@@ -6983,13 +6983,13 @@
     <t>ПоганаяМолодежь</t>
   </si>
   <si>
-    <t>23 ч. 1 мин. 21 сек.</t>
+    <t>23 ч. 01 мин. 21 сек.</t>
   </si>
   <si>
     <t>_Jack_</t>
   </si>
   <si>
-    <t>22 ч. 47 мин. 8 сек.</t>
+    <t>22 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>882–884</t>
@@ -7055,7 +7055,7 @@
     <t>bitjr</t>
   </si>
   <si>
-    <t>22 ч. 39 мин. 6 сек.</t>
+    <t>22 ч. 39 мин. 06 сек.</t>
   </si>
   <si>
     <t>891–895</t>
@@ -7076,7 +7076,7 @@
     <t>ArtemChic</t>
   </si>
   <si>
-    <t>22 ч. 33 мин. 9 сек.</t>
+    <t>22 ч. 33 мин. 09 сек.</t>
   </si>
   <si>
     <t>Mister_Finka</t>
@@ -7151,7 +7151,7 @@
     <t>Страшила</t>
   </si>
   <si>
-    <t>22 ч. 19 мин. 4 сек.</t>
+    <t>22 ч. 19 мин. 04 сек.</t>
   </si>
   <si>
     <t>Carafuto</t>
@@ -7184,13 +7184,13 @@
     <t>IvanovM</t>
   </si>
   <si>
-    <t>22 ч. 13 мин. 5 сек.</t>
+    <t>22 ч. 13 мин. 05 сек.</t>
   </si>
   <si>
     <t>inmpower</t>
   </si>
   <si>
-    <t>22 ч. 15 мин. 2 сек.</t>
+    <t>22 ч. 15 мин. 02 сек.</t>
   </si>
   <si>
     <t>Fedman47</t>
@@ -7208,7 +7208,7 @@
     <t>Yulick</t>
   </si>
   <si>
-    <t>22 ч. 9 мин. 36 сек.</t>
+    <t>22 ч. 09 мин. 36 сек.</t>
   </si>
   <si>
     <t>914–918</t>
@@ -7217,31 +7217,31 @@
     <t>Deka_</t>
   </si>
   <si>
-    <t>22 ч. 8 мин. 49 сек.</t>
+    <t>22 ч. 08 мин. 49 сек.</t>
   </si>
   <si>
     <t>АСкворешня-Мчит</t>
   </si>
   <si>
-    <t>22 ч. 8 мин. 23 сек.</t>
+    <t>22 ч. 08 мин. 23 сек.</t>
   </si>
   <si>
     <t>BlackPantera</t>
   </si>
   <si>
-    <t>22 ч. 6 мин. 55 сек.</t>
+    <t>22 ч. 06 мин. 55 сек.</t>
   </si>
   <si>
     <t>безтормозов</t>
   </si>
   <si>
-    <t>22 ч. 8 мин. 33 сек.</t>
+    <t>22 ч. 08 мин. 33 сек.</t>
   </si>
   <si>
     <t>Exolon</t>
   </si>
   <si>
-    <t>22 ч. 8 мин. 11 сек.</t>
+    <t>22 ч. 08 мин. 11 сек.</t>
   </si>
   <si>
     <t>919–923</t>
@@ -7250,31 +7250,31 @@
     <t>DimaRoot</t>
   </si>
   <si>
-    <t>22 ч. 3 мин. 49 сек.</t>
+    <t>22 ч. 03 мин. 49 сек.</t>
   </si>
   <si>
     <t>Корн</t>
   </si>
   <si>
-    <t>22 ч. 2 мин. 29 сек.</t>
+    <t>22 ч. 02 мин. 29 сек.</t>
   </si>
   <si>
     <t>гопота</t>
   </si>
   <si>
-    <t>22 ч. 1 мин. 34 сек.</t>
+    <t>22 ч. 01 мин. 34 сек.</t>
   </si>
   <si>
     <t>WildMan-23</t>
   </si>
   <si>
-    <t>22 ч. 2 мин. 17 сек.</t>
+    <t>22 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>Jiona</t>
   </si>
   <si>
-    <t>22 ч. 1 мин. 10 сек.</t>
+    <t>22 ч. 01 мин. 10 сек.</t>
   </si>
   <si>
     <t>924</t>
@@ -7292,7 +7292,7 @@
     <t>FLb</t>
   </si>
   <si>
-    <t>21 ч. 54 мин. 6 сек.</t>
+    <t>21 ч. 54 мин. 06 сек.</t>
   </si>
   <si>
     <t>Грубиян</t>
@@ -7397,7 +7397,7 @@
     <t>Тоха</t>
   </si>
   <si>
-    <t>21 ч. 29 мин. 9 сек.</t>
+    <t>21 ч. 29 мин. 09 сек.</t>
   </si>
   <si>
     <t>941–943</t>
@@ -7463,7 +7463,7 @@
     <t>саша</t>
   </si>
   <si>
-    <t>21 ч. 9 мин. 11 сек.</t>
+    <t>21 ч. 09 мин. 11 сек.</t>
   </si>
   <si>
     <t>951–954</t>
@@ -7472,19 +7472,19 @@
     <t>SGP63</t>
   </si>
   <si>
-    <t>21 ч. 2 мин. 49 сек.</t>
+    <t>21 ч. 02 мин. 49 сек.</t>
   </si>
   <si>
     <t>newsuslik</t>
   </si>
   <si>
-    <t>21 ч. 3 мин. 43 сек.</t>
+    <t>21 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>yogurtishe</t>
   </si>
   <si>
-    <t>21 ч. 3 мин. 4 сек.</t>
+    <t>21 ч. 03 мин. 04 сек.</t>
   </si>
   <si>
     <t>snx</t>
@@ -7505,7 +7505,7 @@
     <t>sbook</t>
   </si>
   <si>
-    <t>21 ч. 7 мин. 18 сек.</t>
+    <t>21 ч. 07 мин. 18 сек.</t>
   </si>
   <si>
     <t>elle5555</t>
@@ -7586,7 +7586,7 @@
     <t>Vohel</t>
   </si>
   <si>
-    <t>20 ч. 37 мин. 6 сек.</t>
+    <t>20 ч. 37 мин. 06 сек.</t>
   </si>
   <si>
     <t>Cheerless</t>
@@ -7655,7 +7655,7 @@
     <t>Воланд</t>
   </si>
   <si>
-    <t>20 ч. 33 мин. 5 сек.</t>
+    <t>20 ч. 33 мин. 05 сек.</t>
   </si>
   <si>
     <t>980–983</t>
@@ -7664,7 +7664,7 @@
     <t>atikin88</t>
   </si>
   <si>
-    <t>20 ч. 28 мин. 6 сек.</t>
+    <t>20 ч. 28 мин. 06 сек.</t>
   </si>
   <si>
     <t>kbs017</t>
@@ -7697,7 +7697,7 @@
     <t>FFwertu</t>
   </si>
   <si>
-    <t>20 ч. 23 мин. 4 сек.</t>
+    <t>20 ч. 23 мин. 04 сек.</t>
   </si>
   <si>
     <t>Вещий_Олег</t>
@@ -7760,25 +7760,25 @@
     <t>Genek</t>
   </si>
   <si>
-    <t>20 ч. 9 мин. 16 сек.</t>
+    <t>20 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>Клавоген</t>
   </si>
   <si>
-    <t>20 ч. 9 мин. 18 сек.</t>
+    <t>20 ч. 09 мин. 18 сек.</t>
   </si>
   <si>
     <t>Grarad</t>
   </si>
   <si>
-    <t>20 ч. 8 мин. 9 сек.</t>
+    <t>20 ч. 08 мин. 09 сек.</t>
   </si>
   <si>
     <t>Альбатрос</t>
   </si>
   <si>
-    <t>20 ч. 6 мин. 35 сек.</t>
+    <t>20 ч. 06 мин. 35 сек.</t>
   </si>
   <si>
     <t>998</t>
@@ -7787,7 +7787,7 @@
     <t>gogolocman</t>
   </si>
   <si>
-    <t>20 ч. 3 мин. 49 сек.</t>
+    <t>20 ч. 03 мин. 49 сек.</t>
   </si>
   <si>
     <t>999–1002</t>
@@ -7841,7 +7841,7 @@
     <t>rseniy3</t>
   </si>
   <si>
-    <t>19 ч. 54 мин. 8 сек.</t>
+    <t>19 ч. 54 мин. 08 сек.</t>
   </si>
   <si>
     <t>1007–1009</t>
@@ -7856,7 +7856,7 @@
     <t>lucky-man</t>
   </si>
   <si>
-    <t>19 ч. 46 мин. 1 сек.</t>
+    <t>19 ч. 46 мин. 01 сек.</t>
   </si>
   <si>
     <t>Alexeibest1</t>
@@ -7871,7 +7871,7 @@
     <t>Kalenvall</t>
   </si>
   <si>
-    <t>19 ч. 44 мин. 6 сек.</t>
+    <t>19 ч. 44 мин. 06 сек.</t>
   </si>
   <si>
     <t>1011–1016</t>
@@ -7910,7 +7910,7 @@
     <t>r0undabout</t>
   </si>
   <si>
-    <t>19 ч. 37 мин. 9 сек.</t>
+    <t>19 ч. 37 мин. 09 сек.</t>
   </si>
   <si>
     <t>1017–1019</t>
@@ -7940,7 +7940,7 @@
     <t>Hleb_1989</t>
   </si>
   <si>
-    <t>19 ч. 29 мин. 8 сек.</t>
+    <t>19 ч. 29 мин. 08 сек.</t>
   </si>
   <si>
     <t>Соточка</t>
@@ -8024,19 +8024,19 @@
     <t>spacem0nkey</t>
   </si>
   <si>
-    <t>19 ч. 8 мин. 40 сек.</t>
+    <t>19 ч. 08 мин. 40 сек.</t>
   </si>
   <si>
     <t>Bolot</t>
   </si>
   <si>
-    <t>19 ч. 7 мин. 40 сек.</t>
+    <t>19 ч. 07 мин. 40 сек.</t>
   </si>
   <si>
     <t>Sunbeam</t>
   </si>
   <si>
-    <t>19 ч. 5 мин. 56 сек.</t>
+    <t>19 ч. 05 мин. 56 сек.</t>
   </si>
   <si>
     <t>1035–1040</t>
@@ -8045,37 +8045,37 @@
     <t>Roodyaman</t>
   </si>
   <si>
-    <t>19 ч. 3 мин. 29 сек.</t>
+    <t>19 ч. 03 мин. 29 сек.</t>
   </si>
   <si>
     <t>Дмитрий-Сол</t>
   </si>
   <si>
-    <t>19 ч. 4 мин. 7 сек.</t>
+    <t>19 ч. 04 мин. 07 сек.</t>
   </si>
   <si>
     <t>Pale_Rider</t>
   </si>
   <si>
-    <t>19 ч. 5 мин. 1 сек.</t>
+    <t>19 ч. 05 мин. 01 сек.</t>
   </si>
   <si>
     <t>franka</t>
   </si>
   <si>
-    <t>19 ч. 2 мин. 45 сек.</t>
+    <t>19 ч. 02 мин. 45 сек.</t>
   </si>
   <si>
     <t>kia1020</t>
   </si>
   <si>
-    <t>19 ч. 3 мин. 14 сек.</t>
+    <t>19 ч. 03 мин. 14 сек.</t>
   </si>
   <si>
     <t>wipexe</t>
   </si>
   <si>
-    <t>19 ч. 3 мин. 44 сек.</t>
+    <t>19 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>1041–1046</t>
@@ -8108,7 +8108,7 @@
     <t>Paragogg</t>
   </si>
   <si>
-    <t>18 ч. 56 мин. 0 сек.</t>
+    <t>18 ч. 56 мин. 00 сек.</t>
   </si>
   <si>
     <t>sergemak</t>
@@ -8138,7 +8138,7 @@
     <t>Сашаааааа</t>
   </si>
   <si>
-    <t>18 ч. 0 мин. 4 сек.</t>
+    <t>18 ч. 00 мин. 04 сек.</t>
   </si>
   <si>
     <t>Ishka</t>
@@ -8165,13 +8165,13 @@
     <t>R-o-m-i-k</t>
   </si>
   <si>
-    <t>18 ч. 38 мин. 1 сек.</t>
+    <t>18 ч. 38 мин. 01 сек.</t>
   </si>
   <si>
     <t>ORV88</t>
   </si>
   <si>
-    <t>18 ч. 43 мин. 1 сек.</t>
+    <t>18 ч. 43 мин. 01 сек.</t>
   </si>
   <si>
     <t>1hazard</t>
@@ -8204,7 +8204,7 @@
     <t>MOYSHA</t>
   </si>
   <si>
-    <t>18 ч. 37 мин. 9 сек.</t>
+    <t>18 ч. 37 мин. 09 сек.</t>
   </si>
   <si>
     <t>1060–1066</t>
@@ -8237,7 +8237,7 @@
     <t>LexusAmd</t>
   </si>
   <si>
-    <t>18 ч. 34 мин. 8 сек.</t>
+    <t>18 ч. 34 мин. 08 сек.</t>
   </si>
   <si>
     <t>Rizlex</t>
@@ -8249,7 +8249,7 @@
     <t>archi77</t>
   </si>
   <si>
-    <t>18 ч. 32 мин. 3 сек.</t>
+    <t>18 ч. 32 мин. 03 сек.</t>
   </si>
   <si>
     <t>1067–1070</t>
@@ -8291,13 +8291,13 @@
     <t>katrin27sivkova</t>
   </si>
   <si>
-    <t>18 ч. 23 мин. 7 сек.</t>
+    <t>18 ч. 23 мин. 07 сек.</t>
   </si>
   <si>
     <t>WERT7</t>
   </si>
   <si>
-    <t>18 ч. 24 мин. 8 сек.</t>
+    <t>18 ч. 24 мин. 08 сек.</t>
   </si>
   <si>
     <t>jackbag</t>
@@ -8309,7 +8309,7 @@
     <t>Escamillo</t>
   </si>
   <si>
-    <t>18 ч. 24 мин. 4 сек.</t>
+    <t>18 ч. 24 мин. 04 сек.</t>
   </si>
   <si>
     <t>наждак</t>
@@ -8318,7 +8318,7 @@
     <t>Рон</t>
   </si>
   <si>
-    <t>18 ч. 23 мин. 6 сек.</t>
+    <t>18 ч. 23 мин. 06 сек.</t>
   </si>
   <si>
     <t>eremej</t>
@@ -8354,7 +8354,7 @@
     <t>L_E_O</t>
   </si>
   <si>
-    <t>18 ч. 14 мин. 9 сек.</t>
+    <t>18 ч. 14 мин. 09 сек.</t>
   </si>
   <si>
     <t>hd_d</t>
@@ -8375,37 +8375,37 @@
     <t>zdanhik</t>
   </si>
   <si>
-    <t>18 ч. 7 мин. 32 сек.</t>
+    <t>18 ч. 07 мин. 32 сек.</t>
   </si>
   <si>
     <t>vvvv5</t>
   </si>
   <si>
-    <t>18 ч. 8 мин. 2 сек.</t>
+    <t>18 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>vl7</t>
   </si>
   <si>
-    <t>18 ч. 6 мин. 52 сек.</t>
+    <t>18 ч. 06 мин. 52 сек.</t>
   </si>
   <si>
     <t>Sonick071</t>
   </si>
   <si>
-    <t>18 ч. 9 мин. 23 сек.</t>
+    <t>18 ч. 09 мин. 23 сек.</t>
   </si>
   <si>
     <t>plop</t>
   </si>
   <si>
-    <t>18 ч. 8 мин. 35 сек.</t>
+    <t>18 ч. 08 мин. 35 сек.</t>
   </si>
   <si>
     <t>Pyccku</t>
   </si>
   <si>
-    <t>18 ч. 2 мин. 34 сек.</t>
+    <t>18 ч. 02 мин. 34 сек.</t>
   </si>
   <si>
     <t>1091–1094</t>
@@ -8414,25 +8414,25 @@
     <t>fly22</t>
   </si>
   <si>
-    <t>18 ч. 4 мин. 28 сек.</t>
+    <t>18 ч. 04 мин. 28 сек.</t>
   </si>
   <si>
     <t>Nsx</t>
   </si>
   <si>
-    <t>18 ч. 3 мин. 51 сек.</t>
+    <t>18 ч. 03 мин. 51 сек.</t>
   </si>
   <si>
     <t>paintedhat</t>
   </si>
   <si>
-    <t>18 ч. 3 мин. 27 сек.</t>
+    <t>18 ч. 03 мин. 27 сек.</t>
   </si>
   <si>
     <t>-kuza-</t>
   </si>
   <si>
-    <t>18 ч. 5 мин. 22 сек.</t>
+    <t>18 ч. 05 мин. 22 сек.</t>
   </si>
   <si>
     <t>1095–1101</t>
@@ -8453,13 +8453,13 @@
     <t>ТРЕКК</t>
   </si>
   <si>
-    <t>17 ч. 59 мин. 6 сек.</t>
+    <t>17 ч. 59 мин. 06 сек.</t>
   </si>
   <si>
     <t>мао</t>
   </si>
   <si>
-    <t>17 ч. 58 мин. 4 сек.</t>
+    <t>17 ч. 58 мин. 04 сек.</t>
   </si>
   <si>
     <t>Berillio</t>
@@ -8537,13 +8537,13 @@
     <t>Speedometer</t>
   </si>
   <si>
-    <t>17 ч. 48 мин. 9 сек.</t>
+    <t>17 ч. 48 мин. 09 сек.</t>
   </si>
   <si>
     <t>nastik</t>
   </si>
   <si>
-    <t>17 ч. 47 мин. 7 сек.</t>
+    <t>17 ч. 47 мин. 07 сек.</t>
   </si>
   <si>
     <t>1112–1120</t>
@@ -8648,13 +8648,13 @@
     <t>Sol0n</t>
   </si>
   <si>
-    <t>17 ч. 34 мин. 0 сек.</t>
+    <t>17 ч. 34 мин. 00 сек.</t>
   </si>
   <si>
     <t>Aleksius</t>
   </si>
   <si>
-    <t>17 ч. 32 мин. 6 сек.</t>
+    <t>17 ч. 32 мин. 06 сек.</t>
   </si>
   <si>
     <t>1Антоха1</t>
@@ -8693,13 +8693,13 @@
     <t>Matafix</t>
   </si>
   <si>
-    <t>17 ч. 29 мин. 5 сек.</t>
+    <t>17 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>terlan</t>
   </si>
   <si>
-    <t>17 ч. 28 мин. 4 сек.</t>
+    <t>17 ч. 28 мин. 04 сек.</t>
   </si>
   <si>
     <t>buzzy</t>
@@ -8747,7 +8747,7 @@
     <t>ArtefactX</t>
   </si>
   <si>
-    <t>17 ч. 19 мин. 4 сек.</t>
+    <t>17 ч. 19 мин. 04 сек.</t>
   </si>
   <si>
     <t>Alli-Shi</t>
@@ -8807,25 +8807,25 @@
     <t>Andrey853</t>
   </si>
   <si>
-    <t>17 ч. 9 мин. 24 сек.</t>
+    <t>17 ч. 09 мин. 24 сек.</t>
   </si>
   <si>
     <t>Fudochi</t>
   </si>
   <si>
-    <t>17 ч. 9 мин. 8 сек.</t>
+    <t>17 ч. 09 мин. 08 сек.</t>
   </si>
   <si>
     <t>Zaz968m</t>
   </si>
   <si>
-    <t>17 ч. 8 мин. 56 сек.</t>
+    <t>17 ч. 08 мин. 56 сек.</t>
   </si>
   <si>
     <t>-WERT-</t>
   </si>
   <si>
-    <t>17 ч. 8 мин. 0 сек.</t>
+    <t>17 ч. 08 мин. 00 сек.</t>
   </si>
   <si>
     <t>1155–1162</t>
@@ -8834,49 +8834,49 @@
     <t>AGATUKUS</t>
   </si>
   <si>
-    <t>17 ч. 36 мин. 8 сек.</t>
+    <t>17 ч. 36 мин. 08 сек.</t>
   </si>
   <si>
     <t>melancholoid</t>
   </si>
   <si>
-    <t>17 ч. 4 мин. 43 сек.</t>
+    <t>17 ч. 04 мин. 43 сек.</t>
   </si>
   <si>
     <t>Петька29</t>
   </si>
   <si>
-    <t>17 ч. 0 мин. 46 сек.</t>
+    <t>17 ч. 00 мин. 46 сек.</t>
   </si>
   <si>
     <t>Speed_King</t>
   </si>
   <si>
-    <t>17 ч. 3 мин. 4 сек.</t>
+    <t>17 ч. 03 мин. 04 сек.</t>
   </si>
   <si>
     <t>KAYFARYK</t>
   </si>
   <si>
-    <t>17 ч. 4 мин. 39 сек.</t>
+    <t>17 ч. 04 мин. 39 сек.</t>
   </si>
   <si>
     <t>SnowMen</t>
   </si>
   <si>
-    <t>17 ч. 3 мин. 30 сек.</t>
+    <t>17 ч. 03 мин. 30 сек.</t>
   </si>
   <si>
     <t>Pavl0</t>
   </si>
   <si>
-    <t>17 ч. 3 мин. 7 сек.</t>
+    <t>17 ч. 03 мин. 07 сек.</t>
   </si>
   <si>
     <t>Байт</t>
   </si>
   <si>
-    <t>17 ч. 2 мин. 25 сек.</t>
+    <t>17 ч. 02 мин. 25 сек.</t>
   </si>
   <si>
     <t>1163–1165</t>
@@ -8885,7 +8885,7 @@
     <t>AlexeyAlexey7</t>
   </si>
   <si>
-    <t>17 ч. 2 мин. 42 сек.</t>
+    <t>17 ч. 02 мин. 42 сек.</t>
   </si>
   <si>
     <t>kenoch</t>
@@ -9002,7 +9002,7 @@
     <t>ajka616</t>
   </si>
   <si>
-    <t>16 ч. 44 мин. 1 сек.</t>
+    <t>16 ч. 44 мин. 01 сек.</t>
   </si>
   <si>
     <t>SemRuslan</t>
@@ -9029,7 +9029,7 @@
     <t>Дед_Мазай</t>
   </si>
   <si>
-    <t>16 ч. 39 мин. 5 сек.</t>
+    <t>16 ч. 39 мин. 05 сек.</t>
   </si>
   <si>
     <t>EVjGeNiX</t>
@@ -9107,7 +9107,7 @@
     <t>Интересующийся</t>
   </si>
   <si>
-    <t>16 ч. 33 мин. 0 сек.</t>
+    <t>16 ч. 33 мин. 00 сек.</t>
   </si>
   <si>
     <t>JeanSU</t>
@@ -9140,7 +9140,7 @@
     <t>Jerichoni</t>
   </si>
   <si>
-    <t>16 ч. 28 мин. 4 сек.</t>
+    <t>16 ч. 28 мин. 04 сек.</t>
   </si>
   <si>
     <t>Salamondro</t>
@@ -9170,7 +9170,7 @@
     <t>-LVV-</t>
   </si>
   <si>
-    <t>16 ч. 29 мин. 1 сек.</t>
+    <t>16 ч. 29 мин. 01 сек.</t>
   </si>
   <si>
     <t>lemming</t>
@@ -9203,13 +9203,13 @@
     <t>eksdak</t>
   </si>
   <si>
-    <t>16 ч. 24 мин. 8 сек.</t>
+    <t>16 ч. 24 мин. 08 сек.</t>
   </si>
   <si>
     <t>homo-novus</t>
   </si>
   <si>
-    <t>16 ч. 23 мин. 3 сек.</t>
+    <t>16 ч. 23 мин. 03 сек.</t>
   </si>
   <si>
     <t>zzox</t>
@@ -9266,7 +9266,7 @@
     <t>алесик</t>
   </si>
   <si>
-    <t>16 ч. 18 мин. 5 сек.</t>
+    <t>16 ч. 18 мин. 05 сек.</t>
   </si>
   <si>
     <t>1224–1231</t>
@@ -9299,7 +9299,7 @@
     <t>narciss0</t>
   </si>
   <si>
-    <t>16 ч. 13 мин. 3 сек.</t>
+    <t>16 ч. 13 мин. 03 сек.</t>
   </si>
   <si>
     <t>Светааа</t>
@@ -9311,7 +9311,7 @@
     <t>Aksinja</t>
   </si>
   <si>
-    <t>16 ч. 13 мин. 7 сек.</t>
+    <t>16 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>madar</t>
@@ -9326,37 +9326,37 @@
     <t>омаевамо</t>
   </si>
   <si>
-    <t>16 ч. 8 мин. 56 сек.</t>
+    <t>16 ч. 08 мин. 56 сек.</t>
   </si>
   <si>
     <t>Нельсон1104</t>
   </si>
   <si>
-    <t>16 ч. 9 мин. 13 сек.</t>
+    <t>16 ч. 09 мин. 13 сек.</t>
   </si>
   <si>
     <t>evgen65</t>
   </si>
   <si>
-    <t>16 ч. 8 мин. 41 сек.</t>
+    <t>16 ч. 08 мин. 41 сек.</t>
   </si>
   <si>
     <t>ElenaF</t>
   </si>
   <si>
-    <t>16 ч. 8 мин. 40 сек.</t>
+    <t>16 ч. 08 мин. 40 сек.</t>
   </si>
   <si>
     <t>Silverneo</t>
   </si>
   <si>
-    <t>16 ч. 9 мин. 2 сек.</t>
+    <t>16 ч. 09 мин. 02 сек.</t>
   </si>
   <si>
     <t>ourplay</t>
   </si>
   <si>
-    <t>16 ч. 8 мин. 8 сек.</t>
+    <t>16 ч. 08 мин. 08 сек.</t>
   </si>
   <si>
     <t>1238–1242</t>
@@ -9365,31 +9365,31 @@
     <t>KitsuneSpirit</t>
   </si>
   <si>
-    <t>16 ч. 4 мин. 45 сек.</t>
+    <t>16 ч. 04 мин. 45 сек.</t>
   </si>
   <si>
     <t>ksneo</t>
   </si>
   <si>
-    <t>16 ч. 2 мин. 59 сек.</t>
+    <t>16 ч. 02 мин. 59 сек.</t>
   </si>
   <si>
     <t>-HuKa-</t>
   </si>
   <si>
-    <t>16 ч. 2 мин. 54 сек.</t>
+    <t>16 ч. 02 мин. 54 сек.</t>
   </si>
   <si>
     <t>Импульс</t>
   </si>
   <si>
-    <t>16 ч. 2 мин. 40 сек.</t>
+    <t>16 ч. 02 мин. 40 сек.</t>
   </si>
   <si>
     <t>ЦАРЬ</t>
   </si>
   <si>
-    <t>16 ч. 1 мин. 57 сек.</t>
+    <t>16 ч. 01 мин. 57 сек.</t>
   </si>
   <si>
     <t>1243–1251</t>
@@ -9494,7 +9494,7 @@
     <t>Герман2882</t>
   </si>
   <si>
-    <t>15 ч. 49 мин. 8 сек.</t>
+    <t>15 ч. 49 мин. 08 сек.</t>
   </si>
   <si>
     <t>Vof4eg</t>
@@ -9506,7 +9506,7 @@
     <t>August</t>
   </si>
   <si>
-    <t>15 ч. 48 мин. 5 сек.</t>
+    <t>15 ч. 48 мин. 05 сек.</t>
   </si>
   <si>
     <t>scooter</t>
@@ -9539,7 +9539,7 @@
     <t>Viktor117</t>
   </si>
   <si>
-    <t>15 ч. 44 мин. 6 сек.</t>
+    <t>15 ч. 44 мин. 06 сек.</t>
   </si>
   <si>
     <t>Yelisey</t>
@@ -9563,7 +9563,7 @@
     <t>casio384</t>
   </si>
   <si>
-    <t>15 ч. 43 мин. 3 сек.</t>
+    <t>15 ч. 43 мин. 03 сек.</t>
   </si>
   <si>
     <t>1270–1278</t>
@@ -9602,7 +9602,7 @@
     <t>lucky-zaa</t>
   </si>
   <si>
-    <t>15 ч. 38 мин. 9 сек.</t>
+    <t>15 ч. 38 мин. 09 сек.</t>
   </si>
   <si>
     <t>Plombir</t>
@@ -9644,13 +9644,13 @@
     <t>yuzzu</t>
   </si>
   <si>
-    <t>15 ч. 29 мин. 0 сек.</t>
+    <t>15 ч. 29 мин. 00 сек.</t>
   </si>
   <si>
     <t>локки</t>
   </si>
   <si>
-    <t>15 ч. 29 мин. 5 сек.</t>
+    <t>15 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>acheron</t>
@@ -9797,7 +9797,7 @@
     <t>Desertove</t>
   </si>
   <si>
-    <t>15 ч. 14 мин. 5 сек.</t>
+    <t>15 ч. 14 мин. 05 сек.</t>
   </si>
   <si>
     <t>n1Riper</t>
@@ -9815,7 +9815,7 @@
     <t>saviorium</t>
   </si>
   <si>
-    <t>15 ч. 14 мин. 8 сек.</t>
+    <t>15 ч. 14 мин. 08 сек.</t>
   </si>
   <si>
     <t>albertcoin</t>
@@ -9827,7 +9827,7 @@
     <t>Хеопс</t>
   </si>
   <si>
-    <t>15 ч. 14 мин. 3 сек.</t>
+    <t>15 ч. 14 мин. 03 сек.</t>
   </si>
   <si>
     <t>Suseika</t>
@@ -9875,31 +9875,31 @@
     <t>f0rtuna</t>
   </si>
   <si>
-    <t>15 ч. 9 мин. 22 сек.</t>
+    <t>15 ч. 09 мин. 22 сек.</t>
   </si>
   <si>
     <t>SoutoMajor</t>
   </si>
   <si>
-    <t>15 ч. 9 мин. 8 сек.</t>
+    <t>15 ч. 09 мин. 08 сек.</t>
   </si>
   <si>
     <t>Cairns</t>
   </si>
   <si>
-    <t>15 ч. 7 мин. 21 сек.</t>
+    <t>15 ч. 07 мин. 21 сек.</t>
   </si>
   <si>
     <t>Алька007</t>
   </si>
   <si>
-    <t>15 ч. 6 мин. 51 сек.</t>
+    <t>15 ч. 06 мин. 51 сек.</t>
   </si>
   <si>
     <t>Ващук</t>
   </si>
   <si>
-    <t>15 ч. 7 мин. 48 сек.</t>
+    <t>15 ч. 07 мин. 48 сек.</t>
   </si>
   <si>
     <t>1323–1331</t>
@@ -9908,55 +9908,55 @@
     <t>Alex1980</t>
   </si>
   <si>
-    <t>15 ч. 2 мин. 49 сек.</t>
+    <t>15 ч. 02 мин. 49 сек.</t>
   </si>
   <si>
     <t>Nicel</t>
   </si>
   <si>
-    <t>15 ч. 4 мин. 26 сек.</t>
+    <t>15 ч. 04 мин. 26 сек.</t>
   </si>
   <si>
     <t>Xupypr_y</t>
   </si>
   <si>
-    <t>15 ч. 4 мин. 5 сек.</t>
+    <t>15 ч. 04 мин. 05 сек.</t>
   </si>
   <si>
     <t>madinko</t>
   </si>
   <si>
-    <t>15 ч. 3 мин. 55 сек.</t>
+    <t>15 ч. 03 мин. 55 сек.</t>
   </si>
   <si>
     <t>Oknevor</t>
   </si>
   <si>
-    <t>15 ч. 3 мин. 54 сек.</t>
+    <t>15 ч. 03 мин. 54 сек.</t>
   </si>
   <si>
     <t>ANYA111</t>
   </si>
   <si>
-    <t>15 ч. 3 мин. 24 сек.</t>
+    <t>15 ч. 03 мин. 24 сек.</t>
   </si>
   <si>
     <t>SupremeLearning</t>
   </si>
   <si>
-    <t>15 ч. 3 мин. 47 сек.</t>
+    <t>15 ч. 03 мин. 47 сек.</t>
   </si>
   <si>
     <t>tihohod</t>
   </si>
   <si>
-    <t>15 ч. 3 мин. 15 сек.</t>
+    <t>15 ч. 03 мин. 15 сек.</t>
   </si>
   <si>
     <t>Vorval_0</t>
   </si>
   <si>
-    <t>15 ч. 3 мин. 57 сек.</t>
+    <t>15 ч. 03 мин. 57 сек.</t>
   </si>
   <si>
     <t>1332–1341</t>
@@ -10001,7 +10001,7 @@
     <t>Racnagore</t>
   </si>
   <si>
-    <t>14 ч. 59 мин. 6 сек.</t>
+    <t>14 ч. 59 мин. 06 сек.</t>
   </si>
   <si>
     <t>mishaberezin</t>
@@ -10046,7 +10046,7 @@
     <t>Соболев</t>
   </si>
   <si>
-    <t>14 ч. 54 мин. 2 сек.</t>
+    <t>14 ч. 54 мин. 02 сек.</t>
   </si>
   <si>
     <t>Луара</t>
@@ -10076,7 +10076,7 @@
     <t>Варюха</t>
   </si>
   <si>
-    <t>14 ч. 53 мин. 9 сек.</t>
+    <t>14 ч. 53 мин. 09 сек.</t>
   </si>
   <si>
     <t>1351–1356</t>
@@ -10148,7 +10148,7 @@
     <t>Demien89</t>
   </si>
   <si>
-    <t>14 ч. 26 мин. 6 сек.</t>
+    <t>14 ч. 26 мин. 06 сек.</t>
   </si>
   <si>
     <t>1362–1367</t>
@@ -10220,7 +10220,7 @@
     <t>Catsvill</t>
   </si>
   <si>
-    <t>14 ч. 33 мин. 4 сек.</t>
+    <t>14 ч. 33 мин. 04 сек.</t>
   </si>
   <si>
     <t>afigan</t>
@@ -10268,7 +10268,7 @@
     <t>Corleone99</t>
   </si>
   <si>
-    <t>14 ч. 23 мин. 0 сек.</t>
+    <t>14 ч. 23 мин. 00 сек.</t>
   </si>
   <si>
     <t>sergfila</t>
@@ -10301,7 +10301,7 @@
     <t>Alber</t>
   </si>
   <si>
-    <t>14 ч. 19 мин. 5 сек.</t>
+    <t>14 ч. 19 мин. 05 сек.</t>
   </si>
   <si>
     <t>valerii12345</t>
@@ -10319,7 +10319,7 @@
     <t>citello</t>
   </si>
   <si>
-    <t>14 ч. 19 мин. 6 сек.</t>
+    <t>14 ч. 19 мин. 06 сек.</t>
   </si>
   <si>
     <t>rovno</t>
@@ -10349,7 +10349,7 @@
     <t>Oblaudr</t>
   </si>
   <si>
-    <t>14 ч. 14 мин. 6 сек.</t>
+    <t>14 ч. 14 мин. 06 сек.</t>
   </si>
   <si>
     <t>VladimirZhirov</t>
@@ -10403,7 +10403,7 @@
     <t>Какиш</t>
   </si>
   <si>
-    <t>14 ч. 13 мин. 9 сек.</t>
+    <t>14 ч. 13 мин. 09 сек.</t>
   </si>
   <si>
     <t>YUMMY</t>
@@ -10418,13 +10418,13 @@
     <t>FerStY</t>
   </si>
   <si>
-    <t>14 ч. 8 мин. 2 сек.</t>
+    <t>14 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>Marfuska</t>
   </si>
   <si>
-    <t>14 ч. 3 мин. 20 сек.</t>
+    <t>14 ч. 03 мин. 20 сек.</t>
   </si>
   <si>
     <t>Gbit</t>
@@ -10433,13 +10433,13 @@
     <t>nitop</t>
   </si>
   <si>
-    <t>14 ч. 9 мин. 7 сек.</t>
+    <t>14 ч. 09 мин. 07 сек.</t>
   </si>
   <si>
     <t>alertin</t>
   </si>
   <si>
-    <t>14 ч. 9 мин. 21 сек.</t>
+    <t>14 ч. 09 мин. 21 сек.</t>
   </si>
   <si>
     <t>1408–1413</t>
@@ -10448,37 +10448,37 @@
     <t>Rockett</t>
   </si>
   <si>
-    <t>14 ч. 3 мин. 56 сек.</t>
+    <t>14 ч. 03 мин. 56 сек.</t>
   </si>
   <si>
     <t>Скат</t>
   </si>
   <si>
-    <t>14 ч. 2 мин. 19 сек.</t>
+    <t>14 ч. 02 мин. 19 сек.</t>
   </si>
   <si>
     <t>Wissen</t>
   </si>
   <si>
-    <t>14 ч. 10 мин. 7 сек.</t>
+    <t>14 ч. 10 мин. 07 сек.</t>
   </si>
   <si>
     <t>9IMopkoBka</t>
   </si>
   <si>
-    <t>14 ч. 3 мин. 29 сек.</t>
+    <t>14 ч. 03 мин. 29 сек.</t>
   </si>
   <si>
     <t>Tasko</t>
   </si>
   <si>
-    <t>14 ч. 4 мин. 40 сек.</t>
+    <t>14 ч. 04 мин. 40 сек.</t>
   </si>
   <si>
     <t>Кусь-Кусь</t>
   </si>
   <si>
-    <t>14 ч. 3 мин. 21 сек.</t>
+    <t>14 ч. 03 мин. 21 сек.</t>
   </si>
   <si>
     <t>1414–1421</t>
@@ -10538,7 +10538,7 @@
     <t>EvrikaCharodika</t>
   </si>
   <si>
-    <t>14 ч. 7 мин. 37 сек.</t>
+    <t>14 ч. 07 мин. 37 сек.</t>
   </si>
   <si>
     <t>Limper</t>
@@ -10568,7 +10568,7 @@
     <t>STM32</t>
   </si>
   <si>
-    <t>13 ч. 54 мин. 9 сек.</t>
+    <t>13 ч. 54 мин. 09 сек.</t>
   </si>
   <si>
     <t>ZVEZDNAYA</t>
@@ -10604,13 +10604,13 @@
     <t>Lol_</t>
   </si>
   <si>
-    <t>13 ч. 53 мин. 2 сек.</t>
+    <t>13 ч. 53 мин. 02 сек.</t>
   </si>
   <si>
     <t>Bombo</t>
   </si>
   <si>
-    <t>13 ч. 50 мин. 1 сек.</t>
+    <t>13 ч. 50 мин. 01 сек.</t>
   </si>
   <si>
     <t>K_Se</t>
@@ -10724,7 +10724,7 @@
     <t>batton</t>
   </si>
   <si>
-    <t>13 ч. 38 мин. 9 сек.</t>
+    <t>13 ч. 38 мин. 09 сек.</t>
   </si>
   <si>
     <t>1453–1456</t>
@@ -10796,7 +10796,7 @@
     <t>Radchin</t>
   </si>
   <si>
-    <t>13 ч. 23 мин. 9 сек.</t>
+    <t>13 ч. 23 мин. 09 сек.</t>
   </si>
   <si>
     <t>Легионер</t>
@@ -10829,7 +10829,7 @@
     <t>maxon4ik</t>
   </si>
   <si>
-    <t>13 ч. 24 мин. 7 сек.</t>
+    <t>13 ч. 24 мин. 07 сек.</t>
   </si>
   <si>
     <t>Wolf4</t>
@@ -10856,7 +10856,7 @@
     <t>jooga</t>
   </si>
   <si>
-    <t>13 ч. 19 мин. 8 сек.</t>
+    <t>13 ч. 19 мин. 08 сек.</t>
   </si>
   <si>
     <t>strix_qb</t>
@@ -10874,7 +10874,7 @@
     <t>Denar</t>
   </si>
   <si>
-    <t>13 ч. 18 мин. 9 сек.</t>
+    <t>13 ч. 18 мин. 09 сек.</t>
   </si>
   <si>
     <t>Berqone</t>
@@ -10919,7 +10919,7 @@
     <t>chesbor</t>
   </si>
   <si>
-    <t>13 ч. 14 мин. 7 сек.</t>
+    <t>13 ч. 14 мин. 07 сек.</t>
   </si>
   <si>
     <t>IntusNox</t>
@@ -10958,61 +10958,61 @@
     <t>g12ex</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 21 сек.</t>
+    <t>13 ч. 09 мин. 21 сек.</t>
   </si>
   <si>
     <t>DaschaD</t>
   </si>
   <si>
-    <t>13 ч. 8 мин. 39 сек.</t>
+    <t>13 ч. 08 мин. 39 сек.</t>
   </si>
   <si>
     <t>Ankx</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 31 сек.</t>
+    <t>13 ч. 09 мин. 31 сек.</t>
   </si>
   <si>
     <t>O_o-Fiery</t>
   </si>
   <si>
-    <t>13 ч. 8 мин. 40 сек.</t>
+    <t>13 ч. 08 мин. 40 сек.</t>
   </si>
   <si>
     <t>Wolcharryk</t>
   </si>
   <si>
-    <t>13 ч. 7 мин. 46 сек.</t>
+    <t>13 ч. 07 мин. 46 сек.</t>
   </si>
   <si>
     <t>Kenichi</t>
   </si>
   <si>
-    <t>13 ч. 8 мин. 56 сек.</t>
+    <t>13 ч. 08 мин. 56 сек.</t>
   </si>
   <si>
     <t>Olgitsa</t>
   </si>
   <si>
-    <t>13 ч. 8 мин. 24 сек.</t>
+    <t>13 ч. 08 мин. 24 сек.</t>
   </si>
   <si>
     <t>Jamakasi</t>
   </si>
   <si>
-    <t>13 ч. 4 мин. 15 сек.</t>
+    <t>13 ч. 04 мин. 15 сек.</t>
   </si>
   <si>
     <t>VodViktor</t>
   </si>
   <si>
-    <t>13 ч. 8 мин. 16 сек.</t>
+    <t>13 ч. 08 мин. 16 сек.</t>
   </si>
   <si>
     <t>Ivchik</t>
   </si>
   <si>
-    <t>13 ч. 5 мин. 48 сек.</t>
+    <t>13 ч. 05 мин. 48 сек.</t>
   </si>
   <si>
     <t>1499–1511</t>
@@ -11021,19 +11021,19 @@
     <t>zimonin</t>
   </si>
   <si>
-    <t>13 ч. 4 мин. 57 сек.</t>
+    <t>13 ч. 04 мин. 57 сек.</t>
   </si>
   <si>
     <t>Danica</t>
   </si>
   <si>
-    <t>13 ч. 3 мин. 47 сек.</t>
+    <t>13 ч. 03 мин. 47 сек.</t>
   </si>
   <si>
     <t>iPitbull</t>
   </si>
   <si>
-    <t>13 ч. 3 мин. 8 сек.</t>
+    <t>13 ч. 03 мин. 08 сек.</t>
   </si>
   <si>
     <t>dertru</t>
@@ -11042,31 +11042,31 @@
     <t>n0mroe</t>
   </si>
   <si>
-    <t>13 ч. 2 мин. 40 сек.</t>
+    <t>13 ч. 02 мин. 40 сек.</t>
   </si>
   <si>
     <t>Vampirenochek</t>
   </si>
   <si>
-    <t>13 ч. 4 мин. 9 сек.</t>
+    <t>13 ч. 04 мин. 09 сек.</t>
   </si>
   <si>
     <t>Кунанов</t>
   </si>
   <si>
-    <t>13 ч. 4 мин. 4 сек.</t>
+    <t>13 ч. 04 мин. 04 сек.</t>
   </si>
   <si>
     <t>Altna</t>
   </si>
   <si>
-    <t>13 ч. 4 мин. 20 сек.</t>
+    <t>13 ч. 04 мин. 20 сек.</t>
   </si>
   <si>
     <t>Banzai7</t>
   </si>
   <si>
-    <t>13 ч. 4 мин. 35 сек.</t>
+    <t>13 ч. 04 мин. 35 сек.</t>
   </si>
   <si>
     <t>Readeer</t>
@@ -11075,19 +11075,19 @@
     <t>Lujdmila</t>
   </si>
   <si>
-    <t>13 ч. 3 мин. 22 сек.</t>
+    <t>13 ч. 03 мин. 22 сек.</t>
   </si>
   <si>
     <t>Asuo</t>
   </si>
   <si>
-    <t>13 ч. 3 мин. 52 сек.</t>
+    <t>13 ч. 03 мин. 52 сек.</t>
   </si>
   <si>
     <t>mcl</t>
   </si>
   <si>
-    <t>13 ч. 3 мин. 25 сек.</t>
+    <t>13 ч. 03 мин. 25 сек.</t>
   </si>
   <si>
     <t>1512–1520</t>
@@ -11114,7 +11114,7 @@
     <t>HappinessHappen</t>
   </si>
   <si>
-    <t>12 ч. 59 мин. 7 сек.</t>
+    <t>12 ч. 59 мин. 07 сек.</t>
   </si>
   <si>
     <t>OlguitaGuapita</t>
@@ -11144,7 +11144,7 @@
     <t>Жижикова</t>
   </si>
   <si>
-    <t>12 ч. 59 мин. 4 сек.</t>
+    <t>12 ч. 59 мин. 04 сек.</t>
   </si>
   <si>
     <t>1521–1528</t>
@@ -11159,13 +11159,13 @@
     <t>StarRuler</t>
   </si>
   <si>
-    <t>12 ч. 54 мин. 4 сек.</t>
+    <t>12 ч. 54 мин. 04 сек.</t>
   </si>
   <si>
     <t>asteny2005</t>
   </si>
   <si>
-    <t>12 ч. 53 мин. 0 сек.</t>
+    <t>12 ч. 53 мин. 00 сек.</t>
   </si>
   <si>
     <t>Abbill</t>
@@ -11201,7 +11201,7 @@
     <t>ABSOLUUUT_</t>
   </si>
   <si>
-    <t>12 ч. 50 мин. 1 сек.</t>
+    <t>12 ч. 50 мин. 01 сек.</t>
   </si>
   <si>
     <t>mantilet</t>
@@ -11213,7 +11213,7 @@
     <t>6apcuk</t>
   </si>
   <si>
-    <t>12 ч. 48 мин. 3 сек.</t>
+    <t>12 ч. 48 мин. 03 сек.</t>
   </si>
   <si>
     <t>Denis120</t>
@@ -11246,7 +11246,7 @@
     <t>sneg_jr</t>
   </si>
   <si>
-    <t>12 ч. 43 мин. 7 сек.</t>
+    <t>12 ч. 43 мин. 07 сек.</t>
   </si>
   <si>
     <t>Shikotka</t>
@@ -11258,7 +11258,7 @@
     <t>maksle</t>
   </si>
   <si>
-    <t>12 ч. 44 мин. 5 сек.</t>
+    <t>12 ч. 44 мин. 05 сек.</t>
   </si>
   <si>
     <t>cottrells</t>
@@ -11303,7 +11303,7 @@
     <t>Crimeaman</t>
   </si>
   <si>
-    <t>12 ч. 39 мин. 4 сек.</t>
+    <t>12 ч. 39 мин. 04 сек.</t>
   </si>
   <si>
     <t>01egas</t>
@@ -11327,7 +11327,7 @@
     <t>шамик</t>
   </si>
   <si>
-    <t>12 ч. 36 мин. 0 сек.</t>
+    <t>12 ч. 36 мин. 00 сек.</t>
   </si>
   <si>
     <t>1550–1553</t>
@@ -11414,7 +11414,7 @@
     <t>flash7701</t>
   </si>
   <si>
-    <t>12 ч. 24 мин. 4 сек.</t>
+    <t>12 ч. 24 мин. 04 сек.</t>
   </si>
   <si>
     <t>kozinak</t>
@@ -11438,7 +11438,7 @@
     <t>Живой</t>
   </si>
   <si>
-    <t>12 ч. 24 мин. 7 сек.</t>
+    <t>12 ч. 24 мин. 07 сек.</t>
   </si>
   <si>
     <t>Reecap</t>
@@ -11450,7 +11450,7 @@
     <t>Lyuda</t>
   </si>
   <si>
-    <t>12 ч. 24 мин. 1 сек.</t>
+    <t>12 ч. 24 мин. 01 сек.</t>
   </si>
   <si>
     <t>Leg</t>
@@ -11531,7 +11531,7 @@
     <t>hilaris</t>
   </si>
   <si>
-    <t>12 ч. 14 мин. 2 сек.</t>
+    <t>12 ч. 14 мин. 02 сек.</t>
   </si>
   <si>
     <t>vbkfyy</t>
@@ -11573,7 +11573,7 @@
     <t>PlasticPuppet</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 42 сек.</t>
+    <t>12 ч. 03 мин. 42 сек.</t>
   </si>
   <si>
     <t>1589–1600</t>
@@ -11582,73 +11582,73 @@
     <t>Ruslan86</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 49 сек.</t>
+    <t>12 ч. 09 мин. 49 сек.</t>
   </si>
   <si>
     <t>MarkD</t>
   </si>
   <si>
-    <t>12 ч. 7 мин. 20 сек.</t>
+    <t>12 ч. 07 мин. 20 сек.</t>
   </si>
   <si>
     <t>В_путь</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 18 сек.</t>
+    <t>12 ч. 09 мин. 18 сек.</t>
   </si>
   <si>
     <t>MirZz</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 19 сек.</t>
+    <t>12 ч. 09 мин. 19 сек.</t>
   </si>
   <si>
     <t>coffeek</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 35 сек.</t>
+    <t>12 ч. 09 мин. 35 сек.</t>
   </si>
   <si>
     <t>chernyshov_ip</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 24 сек.</t>
+    <t>12 ч. 09 мин. 24 сек.</t>
   </si>
   <si>
     <t>2pacshakur</t>
   </si>
   <si>
-    <t>12 ч. 8 мин. 43 сек.</t>
+    <t>12 ч. 08 мин. 43 сек.</t>
   </si>
   <si>
     <t>Mbl</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 41 сек.</t>
+    <t>12 ч. 09 мин. 41 сек.</t>
   </si>
   <si>
     <t>Макрушин</t>
   </si>
   <si>
-    <t>12 ч. 6 мин. 17 сек.</t>
+    <t>12 ч. 06 мин. 17 сек.</t>
   </si>
   <si>
     <t>Alex199</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 32 сек.</t>
+    <t>12 ч. 09 мин. 32 сек.</t>
   </si>
   <si>
     <t>p-kuznetsov</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 12 сек.</t>
+    <t>12 ч. 09 мин. 12 сек.</t>
   </si>
   <si>
     <t>Antonio_Zts</t>
   </si>
   <si>
-    <t>11 ч. 27 мин. 6 сек.</t>
+    <t>11 ч. 27 мин. 06 сек.</t>
   </si>
   <si>
     <t>1601–1609</t>
@@ -11657,55 +11657,55 @@
     <t>TigArt</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 29 сек.</t>
+    <t>12 ч. 04 мин. 29 сек.</t>
   </si>
   <si>
     <t>кофемоль</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 50 сек.</t>
+    <t>12 ч. 03 мин. 50 сек.</t>
   </si>
   <si>
     <t>Yankovich</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 25 сек.</t>
+    <t>12 ч. 04 мин. 25 сек.</t>
   </si>
   <si>
     <t>_Dron_</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 44 сек.</t>
+    <t>12 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>quay</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 14 сек.</t>
+    <t>12 ч. 04 мин. 14 сек.</t>
   </si>
   <si>
     <t>Снус</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 19 сек.</t>
+    <t>12 ч. 03 мин. 19 сек.</t>
   </si>
   <si>
     <t>lady_gaga</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 25 сек.</t>
+    <t>12 ч. 03 мин. 25 сек.</t>
   </si>
   <si>
     <t>hazewalker</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 12 сек.</t>
+    <t>12 ч. 04 мин. 12 сек.</t>
   </si>
   <si>
     <t>Minelay</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 7 сек.</t>
+    <t>12 ч. 03 мин. 07 сек.</t>
   </si>
   <si>
     <t>1610–1621</t>
@@ -11714,7 +11714,7 @@
     <t>klaas459</t>
   </si>
   <si>
-    <t>11 ч. 59 мин. 2 сек.</t>
+    <t>11 ч. 59 мин. 02 сек.</t>
   </si>
   <si>
     <t>zvonenko</t>
@@ -11759,7 +11759,7 @@
     <t>vezderegit</t>
   </si>
   <si>
-    <t>11 ч. 58 мин. 5 сек.</t>
+    <t>11 ч. 58 мин. 05 сек.</t>
   </si>
   <si>
     <t>Phoen9ix</t>
@@ -11843,7 +11843,7 @@
     <t>Наконец-то</t>
   </si>
   <si>
-    <t>11 ч. 49 мин. 6 сек.</t>
+    <t>11 ч. 49 мин. 06 сек.</t>
   </si>
   <si>
     <t>Yanci</t>
@@ -11912,7 +11912,7 @@
     <t>gmaffer</t>
   </si>
   <si>
-    <t>11 ч. 48 мин. 0 сек.</t>
+    <t>11 ч. 48 мин. 00 сек.</t>
   </si>
   <si>
     <t>breaks</t>
@@ -11954,13 +11954,13 @@
     <t>Lgg_</t>
   </si>
   <si>
-    <t>11 ч. 44 мин. 2 сек.</t>
+    <t>11 ч. 44 мин. 02 сек.</t>
   </si>
   <si>
     <t>klinser</t>
   </si>
   <si>
-    <t>11 ч. 42 мин. 0 сек.</t>
+    <t>11 ч. 42 мин. 00 сек.</t>
   </si>
   <si>
     <t>lesnoysnip</t>
@@ -12005,7 +12005,7 @@
     <t>Гена8</t>
   </si>
   <si>
-    <t>11 ч. 38 мин. 5 сек.</t>
+    <t>11 ч. 38 мин. 05 сек.</t>
   </si>
   <si>
     <t>ilshat</t>
@@ -12014,13 +12014,13 @@
     <t>eagle747</t>
   </si>
   <si>
-    <t>11 ч. 37 мин. 9 сек.</t>
+    <t>11 ч. 37 мин. 09 сек.</t>
   </si>
   <si>
     <t>Qadan</t>
   </si>
   <si>
-    <t>11 ч. 39 мин. 7 сек.</t>
+    <t>11 ч. 39 мин. 07 сек.</t>
   </si>
   <si>
     <t>FeO</t>
@@ -12041,7 +12041,7 @@
     <t>nata123777</t>
   </si>
   <si>
-    <t>11 ч. 34 мин. 1 сек.</t>
+    <t>11 ч. 34 мин. 01 сек.</t>
   </si>
   <si>
     <t>Mediator</t>
@@ -12200,7 +12200,7 @@
     <t>НикитаЧернецкий</t>
   </si>
   <si>
-    <t>11 ч. 24 мин. 2 сек.</t>
+    <t>11 ч. 24 мин. 02 сек.</t>
   </si>
   <si>
     <t>BRATKONDRAT</t>
@@ -12224,7 +12224,7 @@
     <t>Klavius</t>
   </si>
   <si>
-    <t>11 ч. 24 мин. 9 сек.</t>
+    <t>11 ч. 24 мин. 09 сек.</t>
   </si>
   <si>
     <t>Juvman</t>
@@ -12257,7 +12257,7 @@
     <t>Andriuxa</t>
   </si>
   <si>
-    <t>11 ч. 19 мин. 8 сек.</t>
+    <t>11 ч. 19 мин. 08 сек.</t>
   </si>
   <si>
     <t>S_T_A_L_K_E_R</t>
@@ -12323,7 +12323,7 @@
     <t>SpazZm</t>
   </si>
   <si>
-    <t>11 ч. 18 мин. 4 сек.</t>
+    <t>11 ч. 18 мин. 04 сек.</t>
   </si>
   <si>
     <t>1711–1719</t>
@@ -12338,13 +12338,13 @@
     <t>MrDenro</t>
   </si>
   <si>
-    <t>11 ч. 14 мин. 5 сек.</t>
+    <t>11 ч. 14 мин. 05 сек.</t>
   </si>
   <si>
     <t>noob_typist</t>
   </si>
   <si>
-    <t>11 ч. 14 мин. 0 сек.</t>
+    <t>11 ч. 14 мин. 00 сек.</t>
   </si>
   <si>
     <t>Тахона</t>
@@ -12380,7 +12380,7 @@
     <t>Визирь</t>
   </si>
   <si>
-    <t>11 ч. 13 мин. 3 сек.</t>
+    <t>11 ч. 13 мин. 03 сек.</t>
   </si>
   <si>
     <t>1720–1725</t>
@@ -12389,7 +12389,7 @@
     <t>ильу</t>
   </si>
   <si>
-    <t>11 ч. 9 мин. 18 сек.</t>
+    <t>11 ч. 09 мин. 18 сек.</t>
   </si>
   <si>
     <t>Ameni</t>
@@ -12401,25 +12401,25 @@
     <t>клавоинка</t>
   </si>
   <si>
-    <t>11 ч. 9 мин. 48 сек.</t>
+    <t>11 ч. 09 мин. 48 сек.</t>
   </si>
   <si>
     <t>elminia</t>
   </si>
   <si>
-    <t>11 ч. 9 мин. 1 сек.</t>
+    <t>11 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>Село</t>
   </si>
   <si>
-    <t>11 ч. 8 мин. 52 сек.</t>
+    <t>11 ч. 08 мин. 52 сек.</t>
   </si>
   <si>
     <t>Юргенс_Клинсман</t>
   </si>
   <si>
-    <t>11 ч. 9 мин. 20 сек.</t>
+    <t>11 ч. 09 мин. 20 сек.</t>
   </si>
   <si>
     <t>1726–1732</t>
@@ -12428,43 +12428,43 @@
     <t>-ivinnic-</t>
   </si>
   <si>
-    <t>11 ч. 3 мин. 38 сек.</t>
+    <t>11 ч. 03 мин. 38 сек.</t>
   </si>
   <si>
     <t>1ilyouha</t>
   </si>
   <si>
-    <t>11 ч. 3 мин. 47 сек.</t>
+    <t>11 ч. 03 мин. 47 сек.</t>
   </si>
   <si>
     <t>Ska3o4nik</t>
   </si>
   <si>
-    <t>11 ч. 3 мин. 56 сек.</t>
+    <t>11 ч. 03 мин. 56 сек.</t>
   </si>
   <si>
     <t>-Ифигения-</t>
   </si>
   <si>
-    <t>11 ч. 4 мин. 19 сек.</t>
+    <t>11 ч. 04 мин. 19 сек.</t>
   </si>
   <si>
     <t>Gosick</t>
   </si>
   <si>
-    <t>11 ч. 2 мин. 37 сек.</t>
+    <t>11 ч. 02 мин. 37 сек.</t>
   </si>
   <si>
     <t>АпСтену</t>
   </si>
   <si>
-    <t>11 ч. 4 мин. 8 сек.</t>
+    <t>11 ч. 04 мин. 08 сек.</t>
   </si>
   <si>
     <t>blblbl</t>
   </si>
   <si>
-    <t>11 ч. 1 мин. 37 сек.</t>
+    <t>11 ч. 01 мин. 37 сек.</t>
   </si>
   <si>
     <t>1733–1748</t>
@@ -12569,7 +12569,7 @@
     <t>sia_mikh_</t>
   </si>
   <si>
-    <t>10 ч. 54 мин. 6 сек.</t>
+    <t>10 ч. 54 мин. 06 сек.</t>
   </si>
   <si>
     <t>Lurlei</t>
@@ -12701,7 +12701,7 @@
     <t>Boost</t>
   </si>
   <si>
-    <t>10 ч. 49 мин. 7 сек.</t>
+    <t>10 ч. 49 мин. 07 сек.</t>
   </si>
   <si>
     <t>Asselen</t>
@@ -12737,7 +12737,7 @@
     <t>zxczxczxc1</t>
   </si>
   <si>
-    <t>10 ч. 44 мин. 9 сек.</t>
+    <t>10 ч. 44 мин. 09 сек.</t>
   </si>
   <si>
     <t>bronikkk</t>
@@ -12941,7 +12941,7 @@
     <t>Vergessen</t>
   </si>
   <si>
-    <t>10 ч. 30 мин. 4 сек.</t>
+    <t>10 ч. 30 мин. 04 сек.</t>
   </si>
   <si>
     <t>Steel_Fomka</t>
@@ -12959,7 +12959,7 @@
     <t>Robust</t>
   </si>
   <si>
-    <t>10 ч. 29 мин. 5 сек.</t>
+    <t>10 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>siplo</t>
@@ -12992,7 +12992,7 @@
     <t>Res_Publica</t>
   </si>
   <si>
-    <t>10 ч. 24 мин. 3 сек.</t>
+    <t>10 ч. 24 мин. 03 сек.</t>
   </si>
   <si>
     <t>kila96</t>
@@ -13019,7 +13019,7 @@
     <t>Mishan</t>
   </si>
   <si>
-    <t>10 ч. 23 мин. 2 сек.</t>
+    <t>10 ч. 23 мин. 02 сек.</t>
   </si>
   <si>
     <t>-О-</t>
@@ -13139,13 +13139,13 @@
     <t>vitalijus</t>
   </si>
   <si>
-    <t>10 ч. 14 мин. 3 сек.</t>
+    <t>10 ч. 14 мин. 03 сек.</t>
   </si>
   <si>
     <t>HeX0</t>
   </si>
   <si>
-    <t>10 ч. 14 мин. 4 сек.</t>
+    <t>10 ч. 14 мин. 04 сек.</t>
   </si>
   <si>
     <t>malayka</t>
@@ -13157,7 +13157,7 @@
     <t>Totosha</t>
   </si>
   <si>
-    <t>10 ч. 14 мин. 6 сек.</t>
+    <t>10 ч. 14 мин. 06 сек.</t>
   </si>
   <si>
     <t>газ</t>
@@ -13175,7 +13175,7 @@
     <t>jimmy53</t>
   </si>
   <si>
-    <t>9 ч. 41 мин. 5 сек.</t>
+    <t>9 ч. 41 мин. 05 сек.</t>
   </si>
   <si>
     <t>Dj_Hard</t>
@@ -13187,43 +13187,43 @@
     <t>Vasnody</t>
   </si>
   <si>
-    <t>10 ч. 9 мин. 20 сек.</t>
+    <t>10 ч. 09 мин. 20 сек.</t>
   </si>
   <si>
     <t>sheeva_v01337</t>
   </si>
   <si>
-    <t>10 ч. 9 мин. 1 сек.</t>
+    <t>10 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>Топтыгин</t>
   </si>
   <si>
-    <t>10 ч. 8 мин. 19 сек.</t>
+    <t>10 ч. 08 мин. 19 сек.</t>
   </si>
   <si>
     <t>NaNol</t>
   </si>
   <si>
-    <t>10 ч. 8 мин. 47 сек.</t>
+    <t>10 ч. 08 мин. 47 сек.</t>
   </si>
   <si>
     <t>8RUMIT</t>
   </si>
   <si>
-    <t>10 ч. 9 мин. 27 сек.</t>
+    <t>10 ч. 09 мин. 27 сек.</t>
   </si>
   <si>
     <t>Лии</t>
   </si>
   <si>
-    <t>10 ч. 7 мин. 27 сек.</t>
+    <t>10 ч. 07 мин. 27 сек.</t>
   </si>
   <si>
     <t>avisz</t>
   </si>
   <si>
-    <t>10 ч. 9 мин. 4 сек.</t>
+    <t>10 ч. 09 мин. 04 сек.</t>
   </si>
   <si>
     <t>Raduga</t>
@@ -13235,13 +13235,13 @@
     <t>Felikc</t>
   </si>
   <si>
-    <t>10 ч. 8 мин. 15 сек.</t>
+    <t>10 ч. 08 мин. 15 сек.</t>
   </si>
   <si>
     <t>disfated</t>
   </si>
   <si>
-    <t>10 ч. 7 мин. 57 сек.</t>
+    <t>10 ч. 07 мин. 57 сек.</t>
   </si>
   <si>
     <t>1862–1875</t>
@@ -13250,85 +13250,85 @@
     <t>jaberoid</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 24 сек.</t>
+    <t>10 ч. 04 мин. 24 сек.</t>
   </si>
   <si>
     <t>algorithm</t>
   </si>
   <si>
-    <t>10 ч. 3 мин. 58 сек.</t>
+    <t>10 ч. 03 мин. 58 сек.</t>
   </si>
   <si>
     <t>WOKII</t>
   </si>
   <si>
-    <t>10 ч. 3 мин. 53 сек.</t>
+    <t>10 ч. 03 мин. 53 сек.</t>
   </si>
   <si>
     <t>Иркут</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 26 сек.</t>
+    <t>10 ч. 04 мин. 26 сек.</t>
   </si>
   <si>
     <t>mitra2013</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 3 сек.</t>
+    <t>10 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>zabiyka</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 7 сек.</t>
+    <t>10 ч. 04 мин. 07 сек.</t>
   </si>
   <si>
     <t>КлавоЛом</t>
   </si>
   <si>
-    <t>10 ч. 1 мин. 21 сек.</t>
+    <t>10 ч. 01 мин. 21 сек.</t>
   </si>
   <si>
     <t>elkmor</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 28 сек.</t>
+    <t>10 ч. 04 мин. 28 сек.</t>
   </si>
   <si>
     <t>петрови4</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 21 сек.</t>
+    <t>10 ч. 04 мин. 21 сек.</t>
   </si>
   <si>
     <t>bdod</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 39 сек.</t>
+    <t>10 ч. 04 мин. 39 сек.</t>
   </si>
   <si>
     <t>Raymank26</t>
   </si>
   <si>
-    <t>10 ч. 3 мин. 31 сек.</t>
+    <t>10 ч. 03 мин. 31 сек.</t>
   </si>
   <si>
     <t>Минералка</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 2 сек.</t>
+    <t>10 ч. 04 мин. 02 сек.</t>
   </si>
   <si>
     <t>MickeyNN</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 13 сек.</t>
+    <t>10 ч. 04 мин. 13 сек.</t>
   </si>
   <si>
     <t>frailleg</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 8 сек.</t>
+    <t>10 ч. 04 мин. 08 сек.</t>
   </si>
   <si>
     <t>1876–1883</t>
@@ -13337,7 +13337,7 @@
     <t>SergeyD97</t>
   </si>
   <si>
-    <t>10 ч. 2 мин. 59 сек.</t>
+    <t>10 ч. 02 мин. 59 сек.</t>
   </si>
   <si>
     <t>bumblebeep</t>
@@ -13394,7 +13394,7 @@
     <t>saratovlawyer</t>
   </si>
   <si>
-    <t>9 ч. 54 мин. 1 сек.</t>
+    <t>9 ч. 54 мин. 01 сек.</t>
   </si>
   <si>
     <t>MoskovKazanova</t>
@@ -13436,7 +13436,7 @@
     <t>Smartzero</t>
   </si>
   <si>
-    <t>10 ч. 1 мин. 23 сек.</t>
+    <t>10 ч. 01 мин. 23 сек.</t>
   </si>
   <si>
     <t>1894–1905</t>
@@ -13529,7 +13529,7 @@
     <t>Людмила83</t>
   </si>
   <si>
-    <t>9 ч. 44 мин. 9 сек.</t>
+    <t>9 ч. 44 мин. 09 сек.</t>
   </si>
   <si>
     <t>fajek</t>
@@ -13547,7 +13547,7 @@
     <t>GAS_BURF</t>
   </si>
   <si>
-    <t>9 ч. 44 мин. 8 сек.</t>
+    <t>9 ч. 44 мин. 08 сек.</t>
   </si>
   <si>
     <t>1912–1926</t>
@@ -13619,7 +13619,7 @@
     <t>едут_подонки</t>
   </si>
   <si>
-    <t>9 ч. 39 мин. 7 сек.</t>
+    <t>9 ч. 39 мин. 07 сек.</t>
   </si>
   <si>
     <t>Lillyona</t>
@@ -13658,7 +13658,7 @@
     <t>ELIJAHFOMICHEV</t>
   </si>
   <si>
-    <t>10 ч. 2 мин. 23 сек.</t>
+    <t>10 ч. 02 мин. 23 сек.</t>
   </si>
   <si>
     <t>Flash_Light</t>
@@ -13811,7 +13811,7 @@
     <t>Salander</t>
   </si>
   <si>
-    <t>9 ч. 24 мин. 2 сек.</t>
+    <t>9 ч. 24 мин. 02 сек.</t>
   </si>
   <si>
     <t>aoeuhtns</t>
@@ -13823,7 +13823,7 @@
     <t>jeni41</t>
   </si>
   <si>
-    <t>9 ч. 24 мин. 9 сек.</t>
+    <t>9 ч. 24 мин. 09 сек.</t>
   </si>
   <si>
     <t>Да-да</t>
@@ -13901,7 +13901,7 @@
     <t>mindsculptor</t>
   </si>
   <si>
-    <t>9 ч. 19 мин. 9 сек.</t>
+    <t>9 ч. 19 мин. 09 сек.</t>
   </si>
   <si>
     <t>Ибракадабра</t>
@@ -13913,7 +13913,7 @@
     <t>bing</t>
   </si>
   <si>
-    <t>9 ч. 19 мин. 7 сек.</t>
+    <t>9 ч. 19 мин. 07 сек.</t>
   </si>
   <si>
     <t>rizloff</t>
@@ -13958,7 +13958,7 @@
     <t>splogin</t>
   </si>
   <si>
-    <t>9 ч. 14 мин. 8 сек.</t>
+    <t>9 ч. 14 мин. 08 сек.</t>
   </si>
   <si>
     <t>nigahigga</t>
@@ -13976,7 +13976,7 @@
     <t>мегагуру</t>
   </si>
   <si>
-    <t>9 ч. 14 мин. 5 сек.</t>
+    <t>9 ч. 14 мин. 05 сек.</t>
   </si>
   <si>
     <t>StarGate</t>
@@ -13988,7 +13988,7 @@
     <t>FlyKiller</t>
   </si>
   <si>
-    <t>9 ч. 14 мин. 0 сек.</t>
+    <t>9 ч. 14 мин. 00 сек.</t>
   </si>
   <si>
     <t>frinik</t>
@@ -14012,7 +14012,7 @@
     <t>_Nicole_</t>
   </si>
   <si>
-    <t>9 ч. 12 мин. 3 сек.</t>
+    <t>9 ч. 12 мин. 03 сек.</t>
   </si>
   <si>
     <t>an2626</t>
@@ -14030,43 +14030,43 @@
     <t>vladimirvolga</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 21 сек.</t>
+    <t>9 ч. 09 мин. 21 сек.</t>
   </si>
   <si>
     <t>zlpr</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 56 сек.</t>
+    <t>9 ч. 09 мин. 56 сек.</t>
   </si>
   <si>
     <t>Marishkina</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 33 сек.</t>
+    <t>9 ч. 09 мин. 33 сек.</t>
   </si>
   <si>
     <t>maxmaster666</t>
   </si>
   <si>
-    <t>9 ч. 7 мин. 43 сек.</t>
+    <t>9 ч. 07 мин. 43 сек.</t>
   </si>
   <si>
     <t>nbiektashiev</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 0 сек.</t>
+    <t>9 ч. 08 мин. 00 сек.</t>
   </si>
   <si>
     <t>кешаня</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 45 сек.</t>
+    <t>9 ч. 08 мин. 45 сек.</t>
   </si>
   <si>
     <t>Alice_</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 46 сек.</t>
+    <t>9 ч. 08 мин. 46 сек.</t>
   </si>
   <si>
     <t>mmc</t>
@@ -14075,49 +14075,49 @@
     <t>OnlyHim</t>
   </si>
   <si>
-    <t>9 ч. 7 мин. 30 сек.</t>
+    <t>9 ч. 07 мин. 30 сек.</t>
   </si>
   <si>
     <t>Mountain_monk</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 20 сек.</t>
+    <t>9 ч. 09 мин. 20 сек.</t>
   </si>
   <si>
     <t>alexst46</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 42 сек.</t>
+    <t>9 ч. 04 мин. 42 сек.</t>
   </si>
   <si>
     <t>luizakarimova</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 25 сек.</t>
+    <t>9 ч. 09 мин. 25 сек.</t>
   </si>
   <si>
     <t>DataKrat</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 3 сек.</t>
+    <t>9 ч. 09 мин. 03 сек.</t>
   </si>
   <si>
     <t>d4sher</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 53 сек.</t>
+    <t>9 ч. 08 мин. 53 сек.</t>
   </si>
   <si>
     <t>Odyssey</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 55 сек.</t>
+    <t>9 ч. 08 мин. 55 сек.</t>
   </si>
   <si>
     <t>Adinochka</t>
   </si>
   <si>
-    <t>9 ч. 7 мин. 53 сек.</t>
+    <t>9 ч. 07 мин. 53 сек.</t>
   </si>
   <si>
     <t>MacTep</t>
@@ -14129,43 +14129,43 @@
     <t>mopar</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 22 сек.</t>
+    <t>9 ч. 03 мин. 22 сек.</t>
   </si>
   <si>
     <t>artemD</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 27 сек.</t>
+    <t>9 ч. 01 мин. 27 сек.</t>
   </si>
   <si>
     <t>Zzzzouoo</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 33 сек.</t>
+    <t>9 ч. 04 мин. 33 сек.</t>
   </si>
   <si>
     <t>Andrew8</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 58 сек.</t>
+    <t>9 ч. 03 мин. 58 сек.</t>
   </si>
   <si>
     <t>gevis</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 50 сек.</t>
+    <t>9 ч. 03 мин. 50 сек.</t>
   </si>
   <si>
     <t>муслим</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 13 сек.</t>
+    <t>9 ч. 04 мин. 13 сек.</t>
   </si>
   <si>
     <t>DM-x</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 3 сек.</t>
+    <t>9 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>Кусака</t>
@@ -14174,7 +14174,7 @@
     <t>Lunaries</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 48 сек.</t>
+    <t>9 ч. 01 мин. 48 сек.</t>
   </si>
   <si>
     <t>sasha561</t>
@@ -14183,19 +14183,19 @@
     <t>dzheo_liliya</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 23 сек.</t>
+    <t>9 ч. 04 мин. 23 сек.</t>
   </si>
   <si>
     <t>miran</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 11 сек.</t>
+    <t>9 ч. 04 мин. 11 сек.</t>
   </si>
   <si>
     <t>AaalexIV</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 18 сек.</t>
+    <t>9 ч. 04 мин. 18 сек.</t>
   </si>
   <si>
     <t>liga111</t>
@@ -14204,37 +14204,37 @@
     <t>Adigas</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 48 сек.</t>
+    <t>9 ч. 03 мин. 48 сек.</t>
   </si>
   <si>
     <t>ppetrov</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 25 сек.</t>
+    <t>9 ч. 04 мин. 25 сек.</t>
   </si>
   <si>
     <t>kchota</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 27 сек.</t>
+    <t>9 ч. 04 мин. 27 сек.</t>
   </si>
   <si>
     <t>MagnumPI</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 57 сек.</t>
+    <t>9 ч. 03 мин. 57 сек.</t>
   </si>
   <si>
     <t>Lexurev</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 0 сек.</t>
+    <t>9 ч. 03 мин. 00 сек.</t>
   </si>
   <si>
     <t>stanislavsib</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 31 сек.</t>
+    <t>9 ч. 03 мин. 31 сек.</t>
   </si>
   <si>
     <t>у_гонщица</t>
@@ -14243,7 +14243,7 @@
     <t>бебебе</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 18 сек.</t>
+    <t>9 ч. 03 мин. 18 сек.</t>
   </si>
   <si>
     <t>2029–2038</t>
@@ -14258,7 +14258,7 @@
     <t>Вова_10</t>
   </si>
   <si>
-    <t>8 ч. 59 мин. 2 сек.</t>
+    <t>8 ч. 59 мин. 02 сек.</t>
   </si>
   <si>
     <t>Keysman</t>
@@ -14351,7 +14351,7 @@
     <t>oshni</t>
   </si>
   <si>
-    <t>8 ч. 54 мин. 9 сек.</t>
+    <t>8 ч. 54 мин. 09 сек.</t>
   </si>
   <si>
     <t>falcon24</t>
@@ -14360,13 +14360,13 @@
     <t>nezabivaemiy</t>
   </si>
   <si>
-    <t>8 ч. 55 мин. 5 сек.</t>
+    <t>8 ч. 55 мин. 05 сек.</t>
   </si>
   <si>
     <t>славный</t>
   </si>
   <si>
-    <t>8 ч. 52 мин. 8 сек.</t>
+    <t>8 ч. 52 мин. 08 сек.</t>
   </si>
   <si>
     <t>Dmitry_Orlov</t>
@@ -14378,7 +14378,7 @@
     <t>Nataletik</t>
   </si>
   <si>
-    <t>8 ч. 47 мин. 3 сек.</t>
+    <t>8 ч. 47 мин. 03 сек.</t>
   </si>
   <si>
     <t>Romik41xt</t>
@@ -14399,13 +14399,13 @@
     <t>jkovalenko</t>
   </si>
   <si>
-    <t>8 ч. 50 мин. 5 сек.</t>
+    <t>8 ч. 50 мин. 05 сек.</t>
   </si>
   <si>
     <t>bugayono4ek</t>
   </si>
   <si>
-    <t>8 ч. 49 мин. 8 сек.</t>
+    <t>8 ч. 49 мин. 08 сек.</t>
   </si>
   <si>
     <t>Uragan_D2</t>
@@ -14462,13 +14462,13 @@
     <t>morozovlalex</t>
   </si>
   <si>
-    <t>8 ч. 49 мин. 3 сек.</t>
+    <t>8 ч. 49 мин. 03 сек.</t>
   </si>
   <si>
     <t>CoK</t>
   </si>
   <si>
-    <t>8 ч. 49 мин. 9 сек.</t>
+    <t>8 ч. 49 мин. 09 сек.</t>
   </si>
   <si>
     <t>soft_gust</t>
@@ -14480,7 +14480,7 @@
     <t>lChi</t>
   </si>
   <si>
-    <t>8 ч. 48 мин. 6 сек.</t>
+    <t>8 ч. 48 мин. 06 сек.</t>
   </si>
   <si>
     <t>SteveHome</t>
@@ -14615,7 +14615,7 @@
     <t>PTB_7z</t>
   </si>
   <si>
-    <t>8 ч. 39 мин. 3 сек.</t>
+    <t>8 ч. 39 мин. 03 сек.</t>
   </si>
   <si>
     <t>Guillentes</t>
@@ -14699,7 +14699,7 @@
     <t>Ramazan</t>
   </si>
   <si>
-    <t>8 ч. 39 мин. 9 сек.</t>
+    <t>8 ч. 39 мин. 09 сек.</t>
   </si>
   <si>
     <t>Wonder</t>
@@ -14714,7 +14714,7 @@
     <t>lirpost</t>
   </si>
   <si>
-    <t>8 ч. 34 мин. 5 сек.</t>
+    <t>8 ч. 34 мин. 05 сек.</t>
   </si>
   <si>
     <t>Storm888</t>
@@ -14756,7 +14756,7 @@
     <t>SirenScream</t>
   </si>
   <si>
-    <t>8 ч. 34 мин. 1 сек.</t>
+    <t>8 ч. 34 мин. 01 сек.</t>
   </si>
   <si>
     <t>Timmy1982</t>
@@ -14768,7 +14768,7 @@
     <t>wakiko</t>
   </si>
   <si>
-    <t>8 ч. 34 мин. 2 сек.</t>
+    <t>8 ч. 34 мин. 02 сек.</t>
   </si>
   <si>
     <t>Koloss</t>
@@ -14780,7 +14780,7 @@
     <t>Eleilas</t>
   </si>
   <si>
-    <t>8 ч. 34 мин. 9 сек.</t>
+    <t>8 ч. 34 мин. 09 сек.</t>
   </si>
   <si>
     <t>Jasna</t>
@@ -14807,7 +14807,7 @@
     <t>Катрен</t>
   </si>
   <si>
-    <t>8 ч. 34 мин. 0 сек.</t>
+    <t>8 ч. 34 мин. 00 сек.</t>
   </si>
   <si>
     <t>XXI</t>
@@ -14969,7 +14969,7 @@
     <t>Bezumnyj_pioner</t>
   </si>
   <si>
-    <t>8 ч. 24 мин. 2 сек.</t>
+    <t>8 ч. 24 мин. 02 сек.</t>
   </si>
   <si>
     <t>Dzenly</t>
@@ -15002,7 +15002,7 @@
     <t>ford8</t>
   </si>
   <si>
-    <t>8 ч. 19 мин. 9 сек.</t>
+    <t>8 ч. 19 мин. 09 сек.</t>
   </si>
   <si>
     <t>Janeee</t>
@@ -15029,7 +15029,7 @@
     <t>DenisConqueror</t>
   </si>
   <si>
-    <t>8 ч. 20 мин. 7 сек.</t>
+    <t>8 ч. 20 мин. 07 сек.</t>
   </si>
   <si>
     <t>900</t>
@@ -15089,7 +15089,7 @@
     <t>st46834</t>
   </si>
   <si>
-    <t>8 ч. 19 мин. 8 сек.</t>
+    <t>8 ч. 19 мин. 08 сек.</t>
   </si>
   <si>
     <t>perrito</t>
@@ -15113,7 +15113,7 @@
     <t>Herbert</t>
   </si>
   <si>
-    <t>8 ч. 19 мин. 6 сек.</t>
+    <t>8 ч. 19 мин. 06 сек.</t>
   </si>
   <si>
     <t>AleAle</t>
